--- a/HIB_within_host_model_output_longversion.xlsx
+++ b/HIB_within_host_model_output_longversion.xlsx
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998360560804147</v>
+        <v>0.99839558640219</v>
       </c>
     </row>
     <row r="4">
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995233529718515</v>
+        <v>0.995354988640705</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989319949334008</v>
+        <v>0.989636756489065</v>
       </c>
     </row>
     <row r="6">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.978317260005736</v>
+        <v>0.979040698109417</v>
       </c>
     </row>
     <row r="7">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.958439832473341</v>
+        <v>0.959928777495217</v>
       </c>
     </row>
     <row r="8">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.924294278672258</v>
+        <v>0.927033593484692</v>
       </c>
     </row>
     <row r="9">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.870125487573875</v>
+        <v>0.874522907213693</v>
       </c>
     </row>
     <row r="10">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.793268111653999</v>
+        <v>0.799483450901414</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.697878925895105</v>
+        <v>0.70599109049423</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.594312477519086</v>
+        <v>0.604581571724561</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.493727247732191</v>
+        <v>0.506682190559887</v>
       </c>
     </row>
     <row r="14">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.403491318478143</v>
+        <v>0.419801516685122</v>
       </c>
     </row>
     <row r="15">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.326504858436932</v>
+        <v>0.346859495485848</v>
       </c>
     </row>
     <row r="16">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.262724707211514</v>
+        <v>0.287825517817042</v>
       </c>
     </row>
     <row r="17">
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210746019235705</v>
+        <v>0.241388483372751</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.168762911986777</v>
+        <v>0.205967589227748</v>
       </c>
     </row>
     <row r="19">
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13501681462804</v>
+        <v>0.180190136229541</v>
       </c>
     </row>
     <row r="20">
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.107962549336865</v>
+        <v>0.163025849538229</v>
       </c>
     </row>
     <row r="21">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0863039520546394</v>
+        <v>0.153470154509029</v>
       </c>
     </row>
     <row r="22">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0689785115013146</v>
+        <v>0.148696762859248</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0551253925161125</v>
+        <v>0.146059678305676</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0440514650632374</v>
+        <v>0.144506841597746</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0352006545925531</v>
+        <v>0.143557918648169</v>
       </c>
     </row>
     <row r="26">
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0281272832516813</v>
+        <v>0.1429637917245</v>
       </c>
     </row>
     <row r="27">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0224748176902923</v>
+        <v>0.142584886079777</v>
       </c>
     </row>
     <row r="28">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0179579779883945</v>
+        <v>0.142339134177732</v>
       </c>
     </row>
     <row r="29">
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0143487427492456</v>
+        <v>0.142176783311873</v>
       </c>
     </row>
     <row r="30">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0114646395979593</v>
+        <v>0.142067078449872</v>
       </c>
     </row>
     <row r="31">
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00916023233069319</v>
+        <v>0.141990769950793</v>
       </c>
     </row>
     <row r="32">
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00731898271836906</v>
+        <v>0.141935713610492</v>
       </c>
     </row>
     <row r="33">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00584781397883985</v>
+        <v>0.141894208619715</v>
       </c>
     </row>
     <row r="34">
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00467233316340411</v>
+        <v>0.141861355937076</v>
       </c>
     </row>
     <row r="35">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00373323682599583</v>
+        <v>0.141834032429685</v>
       </c>
     </row>
     <row r="36">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0029828789399252</v>
+        <v>0.141810244448204</v>
       </c>
     </row>
     <row r="37">
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00238328504361332</v>
+        <v>0.141788718262952</v>
       </c>
     </row>
     <row r="38">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0019042271807119</v>
+        <v>0.141768639652372</v>
       </c>
     </row>
     <row r="39">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>0.998231990551937</v>
+        <v>0.998267775205248</v>
       </c>
     </row>
     <row r="41">
@@ -935,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>0.994376796825048</v>
+        <v>0.994509523209608</v>
       </c>
     </row>
     <row r="42">
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9860878265041</v>
+        <v>0.98646816371136</v>
       </c>
     </row>
     <row r="43">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.968811784190523</v>
+        <v>0.969766393700555</v>
       </c>
     </row>
     <row r="44">
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0.934971878195783</v>
+        <v>0.937062661141377</v>
       </c>
     </row>
     <row r="45">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0.875585165992656</v>
+        <v>0.879436835630502</v>
       </c>
     </row>
     <row r="46">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>0.787039655745082</v>
+        <v>0.793272971622072</v>
       </c>
     </row>
     <row r="47">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>0.677961654680844</v>
+        <v>0.68769725636049</v>
       </c>
     </row>
     <row r="48">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.564804115929778</v>
+        <v>0.580223932681755</v>
       </c>
     </row>
     <row r="49">
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>0.46081016933543</v>
+        <v>0.48539893877247</v>
       </c>
     </row>
     <row r="50">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>0.37177090009863</v>
+        <v>0.41062405067105</v>
       </c>
     </row>
     <row r="51">
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>0.298280630506396</v>
+        <v>0.358859693083733</v>
       </c>
     </row>
     <row r="52">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.238691281607059</v>
+        <v>0.331164761552525</v>
       </c>
     </row>
     <row r="53">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0.190773652505675</v>
+        <v>0.321019617202721</v>
       </c>
     </row>
     <row r="54">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>0.152389305532915</v>
+        <v>0.317066540558869</v>
       </c>
     </row>
     <row r="55">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>0.121695906459728</v>
+        <v>0.315372203449111</v>
       </c>
     </row>
     <row r="56">
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0971724249488186</v>
+        <v>0.31459861718057</v>
       </c>
     </row>
     <row r="57">
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0775859546932957</v>
+        <v>0.314217568671586</v>
       </c>
     </row>
     <row r="58">
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0619454418682516</v>
+        <v>0.314007093887443</v>
       </c>
     </row>
     <row r="59">
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0494570526147442</v>
+        <v>0.313871363216809</v>
       </c>
     </row>
     <row r="60">
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0394859589733925</v>
+        <v>0.313768510560097</v>
       </c>
     </row>
     <row r="61">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0315249419628913</v>
+        <v>0.31368014994211</v>
       </c>
     </row>
     <row r="62">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0251688258202988</v>
+        <v>0.313598188406126</v>
       </c>
     </row>
     <row r="63">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0200940964035754</v>
+        <v>0.313519060066685</v>
       </c>
     </row>
     <row r="64">
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0160425658739308</v>
+        <v>0.31344119303413</v>
       </c>
     </row>
     <row r="65">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0128079347053831</v>
+        <v>0.313363894259831</v>
       </c>
     </row>
     <row r="66">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0102254671860876</v>
+        <v>0.31328685814859</v>
       </c>
     </row>
     <row r="67">
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00816379419451424</v>
+        <v>0.313209949942705</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00651785489684877</v>
+        <v>0.313133110214997</v>
       </c>
     </row>
     <row r="69">
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00520365052448489</v>
+        <v>0.313056312755982</v>
       </c>
     </row>
     <row r="70">
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00415444859392903</v>
+        <v>0.312979546003986</v>
       </c>
     </row>
     <row r="71">
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00331680196340248</v>
+        <v>0.312902804856542</v>
       </c>
     </row>
     <row r="72">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00264803679339925</v>
+        <v>0.312826087059475</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00211411924907434</v>
+        <v>0.31274939161462</v>
       </c>
     </row>
     <row r="74">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00168785299960133</v>
+        <v>0.312672718077675</v>
       </c>
     </row>
     <row r="75">
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00134753290789737</v>
+        <v>0.312596066248575</v>
       </c>
     </row>
     <row r="76">
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>0.998087716111359</v>
+        <v>0.998123475554464</v>
       </c>
     </row>
     <row r="78">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>0.993308749440007</v>
+        <v>0.993451863171845</v>
       </c>
     </row>
     <row r="79">
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0.981638457752128</v>
+        <v>0.982099278415014</v>
       </c>
     </row>
     <row r="80">
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>0.954753184295807</v>
+        <v>0.956035977791216</v>
       </c>
     </row>
     <row r="81">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>0.899956730947469</v>
+        <v>0.902880929329059</v>
       </c>
     </row>
     <row r="82">
@@ -1509,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>0.809023958744882</v>
+        <v>0.814949673652215</v>
       </c>
     </row>
     <row r="83">
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>0.691887419822858</v>
+        <v>0.705063369495282</v>
       </c>
     </row>
     <row r="84">
@@ -1537,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>0.570798644440675</v>
+        <v>0.603143641950528</v>
       </c>
     </row>
     <row r="85">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>0.461868947389757</v>
+        <v>0.539506839079254</v>
       </c>
     </row>
     <row r="86">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>0.370469000541202</v>
+        <v>0.52149752865794</v>
       </c>
     </row>
     <row r="87">
@@ -1579,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>0.296080696967743</v>
+        <v>0.517503294563116</v>
       </c>
     </row>
     <row r="88">
@@ -1593,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>0.236288844894733</v>
+        <v>0.516397895665266</v>
       </c>
     </row>
     <row r="89">
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.188467926198871</v>
+        <v>0.51596843937247</v>
       </c>
     </row>
     <row r="90">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>0.150294981728436</v>
+        <v>0.515701792657659</v>
       </c>
     </row>
     <row r="91">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>0.11984596074983</v>
+        <v>0.515474687462687</v>
       </c>
     </row>
     <row r="92">
@@ -1649,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0955644755498199</v>
+        <v>0.515257259892876</v>
       </c>
     </row>
     <row r="93">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0762030157028856</v>
+        <v>0.515042260006815</v>
       </c>
     </row>
     <row r="94">
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0607649414753736</v>
+        <v>0.514827926853823</v>
       </c>
     </row>
     <row r="95">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0484551308719803</v>
+        <v>0.514613832627937</v>
       </c>
     </row>
     <row r="96">
@@ -1705,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0386395254115018</v>
+        <v>0.51439987336106</v>
       </c>
     </row>
     <row r="97">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0308126314436382</v>
+        <v>0.514186023752399</v>
       </c>
     </row>
     <row r="98">
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0245714174972276</v>
+        <v>0.513972277611358</v>
       </c>
     </row>
     <row r="99">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0195945000012886</v>
+        <v>0.513758633389706</v>
       </c>
     </row>
     <row r="100">
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0156261166746746</v>
+        <v>0.513545090667006</v>
       </c>
     </row>
     <row r="101">
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0124613082969955</v>
+        <v>0.513331649296822</v>
       </c>
     </row>
     <row r="102">
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00993751772730341</v>
+        <v>0.513118309199309</v>
       </c>
     </row>
     <row r="103">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>0.00792492951167647</v>
+        <v>0.512905070310803</v>
       </c>
     </row>
     <row r="104">
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00631999619126381</v>
+        <v>0.512691932570995</v>
       </c>
     </row>
     <row r="105">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>0.00504008260061493</v>
+        <v>0.512478895921693</v>
       </c>
     </row>
     <row r="106">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0040193824702018</v>
+        <v>0.512265960304784</v>
       </c>
     </row>
     <row r="107">
@@ -1859,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00320544162286333</v>
+        <v>0.512053125652906</v>
       </c>
     </row>
     <row r="108">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00255637000680848</v>
+        <v>0.51184039191032</v>
       </c>
     </row>
     <row r="109">
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00203875201535517</v>
+        <v>0.511627759023149</v>
       </c>
     </row>
     <row r="110">
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>0.00162607002813004</v>
+        <v>0.511415226934675</v>
       </c>
     </row>
     <row r="111">
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00129689335511906</v>
+        <v>0.511202795587269</v>
       </c>
     </row>
     <row r="112">
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00103438293055229</v>
+        <v>0.510990464923018</v>
       </c>
     </row>
     <row r="113">
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D114" t="n">
-        <v>0.997932105066128</v>
+        <v>0.997967829633361</v>
       </c>
     </row>
     <row r="115">
@@ -1971,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>0.992031215020285</v>
+        <v>0.992187901734481</v>
       </c>
     </row>
     <row r="116">
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="D116" t="n">
-        <v>0.975818267691177</v>
+        <v>0.976389022129414</v>
       </c>
     </row>
     <row r="117">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>0.935643071557483</v>
+        <v>0.937350637083215</v>
       </c>
     </row>
     <row r="118">
@@ -2013,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="D118" t="n">
-        <v>0.855275505305846</v>
+        <v>0.859732600052361</v>
       </c>
     </row>
     <row r="119">
@@ -2027,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="n">
-        <v>0.737471940925203</v>
+        <v>0.756577346435252</v>
       </c>
     </row>
     <row r="120">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>0.608707215495593</v>
+        <v>0.700939656973098</v>
       </c>
     </row>
     <row r="121">
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>0.491502466620831</v>
+        <v>0.694221215153261</v>
       </c>
     </row>
     <row r="122">
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="D122" t="n">
-        <v>0.393393044900758</v>
+        <v>0.693150262565528</v>
       </c>
     </row>
     <row r="123">
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="n">
-        <v>0.313870345352302</v>
+        <v>0.692645985032046</v>
       </c>
     </row>
     <row r="124">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250147641964611</v>
+        <v>0.692200852419338</v>
       </c>
     </row>
     <row r="125">
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>0.199287524740963</v>
+        <v>0.691762165188756</v>
       </c>
     </row>
     <row r="126">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>0.158748385235068</v>
+        <v>0.691324429376635</v>
       </c>
     </row>
     <row r="127">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>0.126450512272852</v>
+        <v>0.690887071784021</v>
       </c>
     </row>
     <row r="128">
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>0.100722428659369</v>
+        <v>0.690450032392154</v>
       </c>
     </row>
     <row r="129">
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0802287930996551</v>
+        <v>0.690013304703952</v>
       </c>
     </row>
     <row r="130">
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0639048561760817</v>
+        <v>0.689576887804615</v>
       </c>
     </row>
     <row r="131">
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0509022943591035</v>
+        <v>0.6891407813613</v>
       </c>
     </row>
     <row r="132">
@@ -2209,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0405453429821681</v>
+        <v>0.688704985103009</v>
       </c>
     </row>
     <row r="133">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0322956033983046</v>
+        <v>0.688269498764282</v>
       </c>
     </row>
     <row r="134">
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0257247861958347</v>
+        <v>0.687834322034112</v>
       </c>
     </row>
     <row r="135">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>0.020490825177704</v>
+        <v>0.687399454671625</v>
       </c>
     </row>
     <row r="136">
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0163215888225795</v>
+        <v>0.686964896430726</v>
       </c>
     </row>
     <row r="137">
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0130007236433044</v>
+        <v>0.686530647054216</v>
       </c>
     </row>
     <row r="138">
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0103555278238007</v>
+        <v>0.686096706281379</v>
       </c>
     </row>
     <row r="139">
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00824851299869993</v>
+        <v>0.685663073850516</v>
       </c>
     </row>
     <row r="140">
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00657020663242084</v>
+        <v>0.685229749499781</v>
       </c>
     </row>
     <row r="141">
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00523340649867638</v>
+        <v>0.684796732967468</v>
       </c>
     </row>
     <row r="142">
@@ -2349,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>0.00416863824245961</v>
+        <v>0.684364023992099</v>
       </c>
     </row>
     <row r="143">
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00332050109240428</v>
+        <v>0.683931622312461</v>
       </c>
     </row>
     <row r="144">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="D144" t="n">
-        <v>0.00264492190696809</v>
+        <v>0.683499527667609</v>
       </c>
     </row>
     <row r="145">
@@ -2391,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00210676892139238</v>
+        <v>0.683067739796874</v>
       </c>
     </row>
     <row r="146">
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00167803774746986</v>
+        <v>0.682636258439862</v>
       </c>
     </row>
     <row r="147">
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00133656928934065</v>
+        <v>0.682205083336454</v>
       </c>
     </row>
     <row r="148">
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>0.001064618270568</v>
+        <v>0.681774214226807</v>
       </c>
     </row>
     <row r="149">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="D149" t="n">
-        <v>0.000847989154372145</v>
+        <v>0.681343650926088</v>
       </c>
     </row>
     <row r="150">
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>0.997776033137306</v>
+        <v>0.99781201382021</v>
       </c>
     </row>
     <row r="152">
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="D152" t="n">
-        <v>0.990621361787054</v>
+        <v>0.990795174147048</v>
       </c>
     </row>
     <row r="153">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="D153" t="n">
-        <v>0.968916290199277</v>
+        <v>0.969619461226713</v>
       </c>
     </row>
     <row r="154">
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>0.913103069513516</v>
+        <v>0.915323992667522</v>
       </c>
     </row>
     <row r="155">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>0.808882115067452</v>
+        <v>0.824527709141593</v>
       </c>
     </row>
     <row r="156">
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>0.676226344382777</v>
+        <v>0.794255903564493</v>
       </c>
     </row>
     <row r="157">
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>0.547910420652478</v>
+        <v>0.792299663360944</v>
       </c>
     </row>
     <row r="158">
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>0.438694531878611</v>
+        <v>0.791580653843043</v>
       </c>
     </row>
     <row r="159">
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>0.349892646386885</v>
+        <v>0.790918829320513</v>
       </c>
     </row>
     <row r="160">
@@ -2601,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>0.278732870428753</v>
+        <v>0.790260218507439</v>
       </c>
     </row>
     <row r="161">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>0.221963660365065</v>
+        <v>0.789602335414733</v>
       </c>
     </row>
     <row r="162">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>0.176735803359877</v>
+        <v>0.78894506489819</v>
       </c>
     </row>
     <row r="163">
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>0.140717717502964</v>
+        <v>0.788288401025291</v>
       </c>
     </row>
     <row r="164">
@@ -2657,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>0.112037774709272</v>
+        <v>0.787632342894592</v>
       </c>
     </row>
     <row r="165">
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0892025353964382</v>
+        <v>0.786976889837143</v>
       </c>
     </row>
     <row r="166">
@@ -2685,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0710206854427527</v>
+        <v>0.786322041087667</v>
       </c>
     </row>
     <row r="167">
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0565432579911536</v>
+        <v>0.785667796030019</v>
       </c>
     </row>
     <row r="168">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0450171042453422</v>
+        <v>0.785014154057274</v>
       </c>
     </row>
     <row r="169">
@@ -2727,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0358401078016866</v>
+        <v>0.784361114531728</v>
       </c>
     </row>
     <row r="170">
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0285336663499881</v>
+        <v>0.783708676805992</v>
       </c>
     </row>
     <row r="171">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0227170870119403</v>
+        <v>0.78305684023003</v>
       </c>
     </row>
     <row r="172">
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0180856632333442</v>
+        <v>0.782405604153501</v>
       </c>
     </row>
     <row r="173">
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0143983317636717</v>
+        <v>0.781754967926542</v>
       </c>
     </row>
     <row r="174">
@@ -2797,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>0.011462776815942</v>
+        <v>0.781104930900024</v>
       </c>
     </row>
     <row r="175">
@@ -2811,7 +2811,7 @@
         <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00912561751433916</v>
+        <v>0.780455492425642</v>
       </c>
     </row>
     <row r="176">
@@ -2825,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00726493090663537</v>
+        <v>0.779806651855939</v>
       </c>
     </row>
     <row r="177">
@@ -2839,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00578359926917355</v>
+        <v>0.779158408545117</v>
       </c>
     </row>
     <row r="178">
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00460432812628337</v>
+        <v>0.778510762018732</v>
       </c>
     </row>
     <row r="179">
@@ -2867,7 +2867,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00366549308103784</v>
+        <v>0.777863711539844</v>
       </c>
     </row>
     <row r="180">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00291807191095779</v>
+        <v>0.777217256377693</v>
       </c>
     </row>
     <row r="181">
@@ -2895,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="D181" t="n">
-        <v>0.00232302471693337</v>
+        <v>0.77657139587593</v>
       </c>
     </row>
     <row r="182">
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00184923731593182</v>
+        <v>0.775926129305252</v>
       </c>
     </row>
     <row r="183">
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00147208122633277</v>
+        <v>0.775281456050736</v>
       </c>
     </row>
     <row r="184">
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00117187557287865</v>
+        <v>0.774637375525317</v>
       </c>
     </row>
     <row r="185">
@@ -2951,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="D185" t="n">
-        <v>0.000932876016267066</v>
+        <v>0.77399388710709</v>
       </c>
     </row>
     <row r="186">
@@ -2965,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>0.000742615789066468</v>
+        <v>0.7733509901631</v>
       </c>
     </row>
     <row r="187">
@@ -2993,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>0.997639519149183</v>
+        <v>0.997675906860147</v>
       </c>
     </row>
     <row r="189">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>0.98928456004727</v>
+        <v>0.9894757499377</v>
       </c>
     </row>
     <row r="190">
@@ -3021,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>0.962043607018017</v>
+        <v>0.962875182107046</v>
       </c>
     </row>
     <row r="191">
@@ -3035,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="n">
-        <v>0.891610168708559</v>
+        <v>0.894626075579868</v>
       </c>
     </row>
     <row r="192">
@@ -3049,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>0.77072799540709</v>
+        <v>0.809780156790331</v>
       </c>
     </row>
     <row r="193">
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="D193" t="n">
-        <v>0.632963623013816</v>
+        <v>0.799509480870556</v>
       </c>
     </row>
     <row r="194">
@@ -3077,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>0.508704760873459</v>
+        <v>0.798463152206863</v>
       </c>
     </row>
     <row r="195">
@@ -3091,7 +3091,7 @@
         <v>4</v>
       </c>
       <c r="D195" t="n">
-        <v>0.406062628986914</v>
+        <v>0.797728263939425</v>
       </c>
     </row>
     <row r="196">
@@ -3105,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>0.323503878794851</v>
+        <v>0.79700509381808</v>
       </c>
     </row>
     <row r="197">
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="D197" t="n">
-        <v>0.257591977461589</v>
+        <v>0.796283034221305</v>
       </c>
     </row>
     <row r="198">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="D198" t="n">
-        <v>0.205077681630227</v>
+        <v>0.795561708291683</v>
       </c>
     </row>
     <row r="199">
@@ -3147,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="D199" t="n">
-        <v>0.163261226674116</v>
+        <v>0.794841101861668</v>
       </c>
     </row>
     <row r="200">
@@ -3161,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="D200" t="n">
-        <v>0.129968922978234</v>
+        <v>0.794121213622722</v>
       </c>
     </row>
     <row r="201">
@@ -3175,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="D201" t="n">
-        <v>0.103464842095331</v>
+        <v>0.793402042723239</v>
       </c>
     </row>
     <row r="202">
@@ -3189,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0823639598734697</v>
+        <v>0.79268358818451</v>
       </c>
     </row>
     <row r="203">
@@ -3203,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0655657873978705</v>
+        <v>0.791965849236107</v>
       </c>
     </row>
     <row r="204">
@@ -3217,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0521933481640627</v>
+        <v>0.791248825104789</v>
       </c>
     </row>
     <row r="205">
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0415478705923148</v>
+        <v>0.790532514980296</v>
       </c>
     </row>
     <row r="206">
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0330740901404559</v>
+        <v>0.78981691804081</v>
       </c>
     </row>
     <row r="207">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0263280964544076</v>
+        <v>0.789102033461439</v>
       </c>
     </row>
     <row r="208">
@@ -3273,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0209577644157925</v>
+        <v>0.788387860417049</v>
       </c>
     </row>
     <row r="209">
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0166828788924256</v>
+        <v>0.787674398083207</v>
       </c>
     </row>
     <row r="210">
@@ -3301,7 +3301,7 @@
         <v>4</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0132798643840107</v>
+        <v>0.786961645636488</v>
       </c>
     </row>
     <row r="211">
@@ -3315,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0105709418913301</v>
+        <v>0.786249602254582</v>
       </c>
     </row>
     <row r="212">
@@ -3329,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00841456536924915</v>
+        <v>0.785538267116326</v>
       </c>
     </row>
     <row r="213">
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00669806178183462</v>
+        <v>0.784827639401798</v>
       </c>
     </row>
     <row r="214">
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0053317240214486</v>
+        <v>0.78411771852452</v>
       </c>
     </row>
     <row r="215">
@@ -3371,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00424411225384128</v>
+        <v>0.783408503524579</v>
       </c>
     </row>
     <row r="216">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="D216" t="n">
-        <v>0.00337835037394849</v>
+        <v>0.782699993483506</v>
       </c>
     </row>
     <row r="217">
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="D217" t="n">
-        <v>0.00268910728054314</v>
+        <v>0.781992187573334</v>
       </c>
     </row>
     <row r="218">
@@ -3413,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="D218" t="n">
-        <v>0.00214039283159831</v>
+        <v>0.781285084860019</v>
       </c>
     </row>
     <row r="219">
@@ -3427,7 +3427,7 @@
         <v>4</v>
       </c>
       <c r="D219" t="n">
-        <v>0.00170373055524875</v>
+        <v>0.780578684578558</v>
       </c>
     </row>
     <row r="220">
@@ -3441,7 +3441,7 @@
         <v>4</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0013561433755131</v>
+        <v>0.779872985981023</v>
       </c>
     </row>
     <row r="221">
@@ -3455,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="D221" t="n">
-        <v>0.00107945657300394</v>
+        <v>0.779167988277971</v>
       </c>
     </row>
     <row r="222">
@@ -3469,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="D222" t="n">
-        <v>0.000859248140833275</v>
+        <v>0.778463690666874</v>
       </c>
     </row>
     <row r="223">
@@ -3483,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="D223" t="n">
-        <v>0.000683962650509433</v>
+        <v>0.777760092341691</v>
       </c>
     </row>
     <row r="224">
@@ -3511,7 +3511,7 @@
         <v>5</v>
       </c>
       <c r="D225" t="n">
-        <v>1522.23344604105</v>
+        <v>998.397668525602</v>
       </c>
     </row>
     <row r="226">
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="D226" t="n">
-        <v>2280.96316950312</v>
+        <v>995.358879734086</v>
       </c>
     </row>
     <row r="227">
@@ -3539,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="n">
-        <v>3339.70614144334</v>
+        <v>989.641941169424</v>
       </c>
     </row>
     <row r="228">
@@ -3553,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>4732.32744804657</v>
+        <v>979.046226153989</v>
       </c>
     </row>
     <row r="229">
@@ -3567,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="D229" t="n">
-        <v>6416.44979475146</v>
+        <v>959.932970207216</v>
       </c>
     </row>
     <row r="230">
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="D230" t="n">
-        <v>8230.47375941906</v>
+        <v>927.033703648022</v>
       </c>
     </row>
     <row r="231">
@@ -3595,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="D231" t="n">
-        <v>9923.88554856943</v>
+        <v>1165.16600111232</v>
       </c>
     </row>
     <row r="232">
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="D232" t="n">
-        <v>11215.6401554765</v>
+        <v>1826.92402840534</v>
       </c>
     </row>
     <row r="233">
@@ -3623,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="D233" t="n">
-        <v>11954.9499397802</v>
+        <v>2766.94901810414</v>
       </c>
     </row>
     <row r="234">
@@ -3637,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="D234" t="n">
-        <v>12202.3205716815</v>
+        <v>4063.90835706972</v>
       </c>
     </row>
     <row r="235">
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="D235" t="n">
-        <v>12130.1536052892</v>
+        <v>5841.28368493476</v>
       </c>
     </row>
     <row r="236">
@@ -3665,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="D236" t="n">
-        <v>11904.884844431</v>
+        <v>8300.38136871579</v>
       </c>
     </row>
     <row r="237">
@@ -3679,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="D237" t="n">
-        <v>11635.025616513</v>
+        <v>11762.1905842132</v>
       </c>
     </row>
     <row r="238">
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="n">
-        <v>11375.5471468632</v>
+        <v>16739.6190821795</v>
       </c>
     </row>
     <row r="239">
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="D239" t="n">
-        <v>11148.2158668204</v>
+        <v>24077.8779180026</v>
       </c>
     </row>
     <row r="240">
@@ -3721,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="D240" t="n">
-        <v>10958.0225763515</v>
+        <v>35236.488094931</v>
       </c>
     </row>
     <row r="241">
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="D241" t="n">
-        <v>10802.7113310786</v>
+        <v>52872.4283892893</v>
       </c>
     </row>
     <row r="242">
@@ -3749,7 +3749,7 @@
         <v>5</v>
       </c>
       <c r="D242" t="n">
-        <v>10677.5206245465</v>
+        <v>82050.4009735393</v>
       </c>
     </row>
     <row r="243">
@@ -3763,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="D243" t="n">
-        <v>10577.2964178259</v>
+        <v>104747.019153944</v>
       </c>
     </row>
     <row r="244">
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="D244" t="n">
-        <v>10497.3334471483</v>
+        <v>101503.072930937</v>
       </c>
     </row>
     <row r="245">
@@ -3791,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="D245" t="n">
-        <v>10433.6312640373</v>
+        <v>99716.1189144921</v>
       </c>
     </row>
     <row r="246">
@@ -3805,7 +3805,7 @@
         <v>5</v>
       </c>
       <c r="D246" t="n">
-        <v>10382.9050597307</v>
+        <v>98668.6799573711</v>
       </c>
     </row>
     <row r="247">
@@ -3819,7 +3819,7 @@
         <v>5</v>
       </c>
       <c r="D247" t="n">
-        <v>10342.5067912374</v>
+        <v>98033.1748735041</v>
       </c>
     </row>
     <row r="248">
@@ -3833,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="D248" t="n">
-        <v>10310.3212049848</v>
+        <v>97639.7010339108</v>
       </c>
     </row>
     <row r="249">
@@ -3847,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="D249" t="n">
-        <v>10284.665324483</v>
+        <v>97393.0594827432</v>
       </c>
     </row>
     <row r="250">
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="D250" t="n">
-        <v>10264.2033912717</v>
+        <v>97237.2700611858</v>
       </c>
     </row>
     <row r="251">
@@ -3875,7 +3875,7 @@
         <v>5</v>
       </c>
       <c r="D251" t="n">
-        <v>10247.8755040962</v>
+        <v>97138.3919591443</v>
       </c>
     </row>
     <row r="252">
@@ -3889,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="D252" t="n">
-        <v>10234.8395413744</v>
+        <v>97075.4421499414</v>
       </c>
     </row>
     <row r="253">
@@ -3903,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="D253" t="n">
-        <v>10224.4286000828</v>
+        <v>97035.2858325286</v>
       </c>
     </row>
     <row r="254">
@@ -3917,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="D254" t="n">
-        <v>10216.111113142</v>
+        <v>97009.6355652838</v>
       </c>
     </row>
     <row r="255">
@@ -3931,7 +3931,7 @@
         <v>5</v>
       </c>
       <c r="D255" t="n">
-        <v>10209.4642557411</v>
+        <v>96993.2355412288</v>
       </c>
     </row>
     <row r="256">
@@ -3945,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="D256" t="n">
-        <v>10204.1509504513</v>
+        <v>96982.7417589826</v>
       </c>
     </row>
     <row r="257">
@@ -3959,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="D257" t="n">
-        <v>10199.9033686427</v>
+        <v>96976.0221628625</v>
       </c>
     </row>
     <row r="258">
@@ -3973,7 +3973,7 @@
         <v>5</v>
       </c>
       <c r="D258" t="n">
-        <v>10196.5067726848</v>
+        <v>96971.7155907171</v>
       </c>
     </row>
     <row r="259">
@@ -3987,7 +3987,7 @@
         <v>5</v>
       </c>
       <c r="D259" t="n">
-        <v>10193.7899888804</v>
+        <v>96968.9522983574</v>
       </c>
     </row>
     <row r="260">
@@ -4001,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="D260" t="n">
-        <v>10191.6169571533</v>
+        <v>96967.17624054</v>
       </c>
     </row>
     <row r="261">
@@ -4029,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="D262" t="n">
-        <v>1507.97373473479</v>
+        <v>998.269852663102</v>
       </c>
     </row>
     <row r="263">
@@ -4043,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="D263" t="n">
-        <v>2238.79896688593</v>
+        <v>994.513359364333</v>
       </c>
     </row>
     <row r="264">
@@ -4057,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="n">
-        <v>3246.56279945562</v>
+        <v>986.473073226677</v>
       </c>
     </row>
     <row r="265">
@@ -4071,7 +4071,7 @@
         <v>5</v>
       </c>
       <c r="D265" t="n">
-        <v>4547.42578901539</v>
+        <v>969.770963229118</v>
       </c>
     </row>
     <row r="266">
@@ -4085,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="D266" t="n">
-        <v>6064.42321120757</v>
+        <v>937.064212931129</v>
       </c>
     </row>
     <row r="267">
@@ -4099,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="D267" t="n">
-        <v>7605.69346081623</v>
+        <v>1515.04626660905</v>
       </c>
     </row>
     <row r="268">
@@ -4113,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="D268" t="n">
-        <v>8880.92316736408</v>
+        <v>3075.6175515726</v>
       </c>
     </row>
     <row r="269">
@@ -4127,7 +4127,7 @@
         <v>5</v>
       </c>
       <c r="D269" t="n">
-        <v>9709.50774297009</v>
+        <v>6000.57463664714</v>
       </c>
     </row>
     <row r="270">
@@ -4141,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D270" t="n">
-        <v>10128.8434066732</v>
+        <v>11393.9883375975</v>
       </c>
     </row>
     <row r="271">
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="D271" t="n">
-        <v>10285.4528924137</v>
+        <v>21451.9214084942</v>
       </c>
     </row>
     <row r="272">
@@ -4169,7 +4169,7 @@
         <v>5</v>
       </c>
       <c r="D272" t="n">
-        <v>10309.3802686448</v>
+        <v>40842.2179903696</v>
       </c>
     </row>
     <row r="273">
@@ -4183,7 +4183,7 @@
         <v>5</v>
       </c>
       <c r="D273" t="n">
-        <v>10278.0777882397</v>
+        <v>80336.3753147119</v>
       </c>
     </row>
     <row r="274">
@@ -4197,7 +4197,7 @@
         <v>5</v>
       </c>
       <c r="D274" t="n">
-        <v>10229.4098867286</v>
+        <v>149277.779018335</v>
       </c>
     </row>
     <row r="275">
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
       <c r="D275" t="n">
-        <v>10179.6770050912</v>
+        <v>144741.97999597</v>
       </c>
     </row>
     <row r="276">
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="D276" t="n">
-        <v>10134.9723238413</v>
+        <v>142995.39477863</v>
       </c>
     </row>
     <row r="277">
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="D277" t="n">
-        <v>10096.9384156036</v>
+        <v>142266.441255689</v>
       </c>
     </row>
     <row r="278">
@@ -4253,7 +4253,7 @@
         <v>5</v>
       </c>
       <c r="D278" t="n">
-        <v>10065.4283047551</v>
+        <v>141952.399388695</v>
       </c>
     </row>
     <row r="279">
@@ -4267,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="D279" t="n">
-        <v>10039.6725429559</v>
+        <v>141815.279834235</v>
       </c>
     </row>
     <row r="280">
@@ -4281,7 +4281,7 @@
         <v>5</v>
       </c>
       <c r="D280" t="n">
-        <v>10018.7646872708</v>
+        <v>141755.053194467</v>
       </c>
     </row>
     <row r="281">
@@ -4295,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="D281" t="n">
-        <v>10001.8527371911</v>
+        <v>141728.523141346</v>
       </c>
     </row>
     <row r="282">
@@ -4309,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="D282" t="n">
-        <v>9988.19649421619</v>
+        <v>141716.813496437</v>
       </c>
     </row>
     <row r="283">
@@ -4323,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="D283" t="n">
-        <v>9977.17791674267</v>
+        <v>141711.632556709</v>
       </c>
     </row>
     <row r="284">
@@ -4337,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="D284" t="n">
-        <v>9968.29000202744</v>
+        <v>141709.329672662</v>
       </c>
     </row>
     <row r="285">
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="D285" t="n">
-        <v>9961.12101924819</v>
+        <v>141708.295918238</v>
       </c>
     </row>
     <row r="286">
@@ -4365,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="D286" t="n">
-        <v>9955.33828243851</v>
+        <v>141707.821885606</v>
       </c>
     </row>
     <row r="287">
@@ -4379,7 +4379,7 @@
         <v>5</v>
       </c>
       <c r="D287" t="n">
-        <v>9950.67334102713</v>
+        <v>141707.594720966</v>
       </c>
     </row>
     <row r="288">
@@ -4393,7 +4393,7 @@
         <v>5</v>
       </c>
       <c r="D288" t="n">
-        <v>9946.90949930112</v>
+        <v>141707.476441575</v>
       </c>
     </row>
     <row r="289">
@@ -4407,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="D289" t="n">
-        <v>9943.87247590931</v>
+        <v>141707.406188424</v>
       </c>
     </row>
     <row r="290">
@@ -4421,7 +4421,7 @@
         <v>5</v>
       </c>
       <c r="D290" t="n">
-        <v>9941.42172614444</v>
+        <v>141707.357118425</v>
       </c>
     </row>
     <row r="291">
@@ -4435,7 +4435,7 @@
         <v>5</v>
       </c>
       <c r="D291" t="n">
-        <v>9939.44359663291</v>
+        <v>141707.317391802</v>
       </c>
     </row>
     <row r="292">
@@ -4449,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="D292" t="n">
-        <v>9937.84684659907</v>
+        <v>141707.281786323</v>
       </c>
     </row>
     <row r="293">
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="D293" t="n">
-        <v>9936.55804329396</v>
+        <v>141707.247998589</v>
       </c>
     </row>
     <row r="294">
@@ -4477,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="D294" t="n">
-        <v>9935.51771567184</v>
+        <v>141707.215012625</v>
       </c>
     </row>
     <row r="295">
@@ -4491,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="D295" t="n">
-        <v>9934.67771351266</v>
+        <v>141707.182380308</v>
       </c>
     </row>
     <row r="296">
@@ -4505,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="D296" t="n">
-        <v>9933.9996599628</v>
+        <v>141707.14990398</v>
       </c>
     </row>
     <row r="297">
@@ -4519,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="D297" t="n">
-        <v>9933.45240109202</v>
+        <v>141707.11749646</v>
       </c>
     </row>
     <row r="298">
@@ -4547,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="D299" t="n">
-        <v>1401.26483930284</v>
+        <v>998.125547859464</v>
       </c>
     </row>
     <row r="300">
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="D300" t="n">
-        <v>1941.43477652735</v>
+        <v>993.455633473525</v>
       </c>
     </row>
     <row r="301">
@@ -4575,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="D301" t="n">
-        <v>2641.39049981382</v>
+        <v>982.103830806301</v>
       </c>
     </row>
     <row r="302">
@@ -4589,7 +4589,7 @@
         <v>5</v>
       </c>
       <c r="D302" t="n">
-        <v>3487.68433738862</v>
+        <v>956.039228777459</v>
       </c>
     </row>
     <row r="303">
@@ -4603,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="D303" t="n">
-        <v>4397.90071543614</v>
+        <v>1699.0975852874</v>
       </c>
     </row>
     <row r="304">
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="D304" t="n">
-        <v>5211.86964350242</v>
+        <v>5650.45085646017</v>
       </c>
     </row>
     <row r="305">
@@ -4631,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="D305" t="n">
-        <v>5801.52132693293</v>
+        <v>18011.3861523628</v>
       </c>
     </row>
     <row r="306">
@@ -4645,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="D306" t="n">
-        <v>6176.28810784569</v>
+        <v>56770.6945192931</v>
       </c>
     </row>
     <row r="307">
@@ -4659,7 +4659,7 @@
         <v>5</v>
       </c>
       <c r="D307" t="n">
-        <v>6414.31938360105</v>
+        <v>187134.764590563</v>
       </c>
     </row>
     <row r="308">
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="D308" t="n">
-        <v>6579.88733040532</v>
+        <v>208337.886752303</v>
       </c>
     </row>
     <row r="309">
@@ -4687,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="D309" t="n">
-        <v>6707.71265202445</v>
+        <v>206828.735193907</v>
       </c>
     </row>
     <row r="310">
@@ -4701,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="D310" t="n">
-        <v>6813.87540104327</v>
+        <v>206472.910696793</v>
       </c>
     </row>
     <row r="311">
@@ -4715,7 +4715,7 @@
         <v>5</v>
       </c>
       <c r="D311" t="n">
-        <v>6905.59532550224</v>
+        <v>206387.024961284</v>
       </c>
     </row>
     <row r="312">
@@ -4729,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="D312" t="n">
-        <v>6986.27807042655</v>
+        <v>206366.153438461</v>
       </c>
     </row>
     <row r="313">
@@ -4743,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="D313" t="n">
-        <v>7057.75502072978</v>
+        <v>206361.047618942</v>
       </c>
     </row>
     <row r="314">
@@ -4757,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="D314" t="n">
-        <v>7121.20113291046</v>
+        <v>206359.771237779</v>
       </c>
     </row>
     <row r="315">
@@ -4771,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="D315" t="n">
-        <v>7177.50611814998</v>
+        <v>206359.425387896</v>
       </c>
     </row>
     <row r="316">
@@ -4785,7 +4785,7 @@
         <v>5</v>
       </c>
       <c r="D316" t="n">
-        <v>7227.41941773843</v>
+        <v>206359.305673839</v>
       </c>
     </row>
     <row r="317">
@@ -4799,7 +4799,7 @@
         <v>5</v>
       </c>
       <c r="D317" t="n">
-        <v>7271.60624441396</v>
+        <v>206359.240916187</v>
       </c>
     </row>
     <row r="318">
@@ -4813,7 +4813,7 @@
         <v>5</v>
       </c>
       <c r="D318" t="n">
-        <v>7310.6694440687</v>
+        <v>206359.189514342</v>
       </c>
     </row>
     <row r="319">
@@ -4827,7 +4827,7 @@
         <v>5</v>
       </c>
       <c r="D319" t="n">
-        <v>7345.15817075701</v>
+        <v>206359.141358315</v>
       </c>
     </row>
     <row r="320">
@@ -4841,7 +4841,7 @@
         <v>5</v>
       </c>
       <c r="D320" t="n">
-        <v>7375.57206558397</v>
+        <v>206359.093991114</v>
       </c>
     </row>
     <row r="321">
@@ -4855,7 +4855,7 @@
         <v>5</v>
       </c>
       <c r="D321" t="n">
-        <v>7402.36414176046</v>
+        <v>206359.046815625</v>
       </c>
     </row>
     <row r="322">
@@ -4869,7 +4869,7 @@
         <v>5</v>
       </c>
       <c r="D322" t="n">
-        <v>7425.94346165001</v>
+        <v>206358.999686734</v>
       </c>
     </row>
     <row r="323">
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
       <c r="D323" t="n">
-        <v>7446.678171391</v>
+        <v>206358.952569177</v>
       </c>
     </row>
     <row r="324">
@@ -4897,7 +4897,7 @@
         <v>5</v>
       </c>
       <c r="D324" t="n">
-        <v>7464.89792209518</v>
+        <v>206358.905454385</v>
       </c>
     </row>
     <row r="325">
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="D325" t="n">
-        <v>7480.89736121186</v>
+        <v>206358.858340269</v>
       </c>
     </row>
     <row r="326">
@@ -4925,7 +4925,7 @@
         <v>5</v>
       </c>
       <c r="D326" t="n">
-        <v>7494.93940451057</v>
+        <v>206358.811226328</v>
       </c>
     </row>
     <row r="327">
@@ -4939,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="D327" t="n">
-        <v>7507.25721224162</v>
+        <v>206358.764112437</v>
       </c>
     </row>
     <row r="328">
@@ -4953,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="D328" t="n">
-        <v>7518.05785483163</v>
+        <v>206358.716998566</v>
       </c>
     </row>
     <row r="329">
@@ -4967,7 +4967,7 @@
         <v>5</v>
       </c>
       <c r="D329" t="n">
-        <v>7527.52445657001</v>
+        <v>206358.669884708</v>
       </c>
     </row>
     <row r="330">
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="D330" t="n">
-        <v>7535.81903596221</v>
+        <v>206358.622770862</v>
       </c>
     </row>
     <row r="331">
@@ -4995,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="D331" t="n">
-        <v>7543.08457637868</v>
+        <v>206358.575657026</v>
       </c>
     </row>
     <row r="332">
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="D332" t="n">
-        <v>7549.44677398218</v>
+        <v>206358.528543202</v>
       </c>
     </row>
     <row r="333">
@@ -5023,7 +5023,7 @@
         <v>5</v>
       </c>
       <c r="D333" t="n">
-        <v>7555.01711615238</v>
+        <v>206358.481429388</v>
       </c>
     </row>
     <row r="334">
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="D334" t="n">
-        <v>7559.89304636675</v>
+        <v>206358.434315585</v>
       </c>
     </row>
     <row r="335">
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="D336" t="n">
-        <v>1286.09096954732</v>
+        <v>997.96989650064</v>
       </c>
     </row>
     <row r="337">
@@ -5079,7 +5079,7 @@
         <v>5</v>
       </c>
       <c r="D337" t="n">
-        <v>1640.59604586081</v>
+        <v>992.191596548614</v>
       </c>
     </row>
     <row r="338">
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="D338" t="n">
-        <v>2060.09233148792</v>
+        <v>976.393133305252</v>
       </c>
     </row>
     <row r="339">
@@ -5107,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="D339" t="n">
-        <v>2507.12337885802</v>
+        <v>1099.99298403256</v>
       </c>
     </row>
     <row r="340">
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="D340" t="n">
-        <v>2895.90490367734</v>
+        <v>9362.58623658389</v>
       </c>
     </row>
     <row r="341">
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="D341" t="n">
-        <v>3141.6760437603</v>
+        <v>76463.4284197465</v>
       </c>
     </row>
     <row r="342">
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="D342" t="n">
-        <v>3254.88084678833</v>
+        <v>295516.786245355</v>
       </c>
     </row>
     <row r="343">
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="D343" t="n">
-        <v>3295.61080158997</v>
+        <v>292870.442009489</v>
       </c>
     </row>
     <row r="344">
@@ -5177,7 +5177,7 @@
         <v>5</v>
       </c>
       <c r="D344" t="n">
-        <v>3306.57448571942</v>
+        <v>292603.843552</v>
       </c>
     </row>
     <row r="345">
@@ -5191,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="D345" t="n">
-        <v>3306.8285135636</v>
+        <v>292576.06201632</v>
       </c>
     </row>
     <row r="346">
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="D346" t="n">
-        <v>3303.50536862633</v>
+        <v>292573.10399498</v>
       </c>
     </row>
     <row r="347">
@@ -5219,7 +5219,7 @@
         <v>5</v>
       </c>
       <c r="D347" t="n">
-        <v>3299.10566392113</v>
+        <v>292572.735480654</v>
       </c>
     </row>
     <row r="348">
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="D348" t="n">
-        <v>3294.48242510416</v>
+        <v>292572.637196105</v>
       </c>
     </row>
     <row r="349">
@@ -5247,7 +5247,7 @@
         <v>5</v>
       </c>
       <c r="D349" t="n">
-        <v>3289.92019366244</v>
+        <v>292572.567112698</v>
       </c>
     </row>
     <row r="350">
@@ -5261,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="D350" t="n">
-        <v>3285.50942249318</v>
+        <v>292572.499972389</v>
       </c>
     </row>
     <row r="351">
@@ -5275,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="D351" t="n">
-        <v>3281.27495736034</v>
+        <v>292572.433139233</v>
       </c>
     </row>
     <row r="352">
@@ -5289,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="D352" t="n">
-        <v>3277.21947165985</v>
+        <v>292572.366338147</v>
       </c>
     </row>
     <row r="353">
@@ -5303,7 +5303,7 @@
         <v>5</v>
       </c>
       <c r="D353" t="n">
-        <v>3273.33841382162</v>
+        <v>292572.29954042</v>
       </c>
     </row>
     <row r="354">
@@ -5317,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="D354" t="n">
-        <v>3269.62510653661</v>
+        <v>292572.232743059</v>
       </c>
     </row>
     <row r="355">
@@ -5331,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="D355" t="n">
-        <v>3266.07232470571</v>
+        <v>292572.165945749</v>
       </c>
     </row>
     <row r="356">
@@ -5345,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="D356" t="n">
-        <v>3262.6729627069</v>
+        <v>292572.099148458</v>
       </c>
     </row>
     <row r="357">
@@ -5359,7 +5359,7 @@
         <v>5</v>
       </c>
       <c r="D357" t="n">
-        <v>3259.42023174797</v>
+        <v>292572.032351183</v>
       </c>
     </row>
     <row r="358">
@@ -5373,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="D358" t="n">
-        <v>3256.30743911865</v>
+        <v>292571.965553923</v>
       </c>
     </row>
     <row r="359">
@@ -5387,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="D359" t="n">
-        <v>3253.32813445929</v>
+        <v>292571.898756678</v>
       </c>
     </row>
     <row r="360">
@@ -5401,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="D360" t="n">
-        <v>3250.47671963121</v>
+        <v>292571.831959449</v>
       </c>
     </row>
     <row r="361">
@@ -5415,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="D361" t="n">
-        <v>3247.7475003948</v>
+        <v>292571.765162234</v>
       </c>
     </row>
     <row r="362">
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>3245.1347856824</v>
+        <v>292571.698365035</v>
       </c>
     </row>
     <row r="363">
@@ -5443,7 +5443,7 @@
         <v>5</v>
       </c>
       <c r="D363" t="n">
-        <v>3242.63357400732</v>
+        <v>292571.631567852</v>
       </c>
     </row>
     <row r="364">
@@ -5457,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="D364" t="n">
-        <v>3240.23896775522</v>
+        <v>292571.564770683</v>
       </c>
     </row>
     <row r="365">
@@ -5471,7 +5471,7 @@
         <v>5</v>
       </c>
       <c r="D365" t="n">
-        <v>3237.94624355809</v>
+        <v>292571.49797353</v>
       </c>
     </row>
     <row r="366">
@@ -5485,7 +5485,7 @@
         <v>5</v>
       </c>
       <c r="D366" t="n">
-        <v>3235.75094578815</v>
+        <v>292571.431176392</v>
       </c>
     </row>
     <row r="367">
@@ -5499,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="D367" t="n">
-        <v>3233.64880873084</v>
+        <v>292571.364379269</v>
       </c>
     </row>
     <row r="368">
@@ -5513,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="D368" t="n">
-        <v>3231.6357663057</v>
+        <v>292571.297582162</v>
       </c>
     </row>
     <row r="369">
@@ -5527,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="D369" t="n">
-        <v>3229.70793940964</v>
+        <v>292571.230785069</v>
       </c>
     </row>
     <row r="370">
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="D370" t="n">
-        <v>3227.86163017511</v>
+        <v>292571.163987992</v>
       </c>
     </row>
     <row r="371">
@@ -5555,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="D371" t="n">
-        <v>3226.09330674073</v>
+        <v>292571.097190931</v>
       </c>
     </row>
     <row r="372">
@@ -5583,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="D373" t="n">
-        <v>1200.22367546469</v>
+        <v>997.814075354257</v>
       </c>
     </row>
     <row r="374">
@@ -5597,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="D374" t="n">
-        <v>1430.38473671945</v>
+        <v>990.798788888195</v>
       </c>
     </row>
     <row r="375">
@@ -5611,7 +5611,7 @@
         <v>5</v>
       </c>
       <c r="D375" t="n">
-        <v>1675.44767541096</v>
+        <v>969.623073869686</v>
       </c>
     </row>
     <row r="376">
@@ -5625,7 +5625,7 @@
         <v>5</v>
       </c>
       <c r="D376" t="n">
-        <v>1887.41944035813</v>
+        <v>5105.03315923716</v>
       </c>
     </row>
     <row r="377">
@@ -5639,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="D377" t="n">
-        <v>1996.26246952212</v>
+        <v>155425.820707582</v>
       </c>
     </row>
     <row r="378">
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="D378" t="n">
-        <v>1991.56538130069</v>
+        <v>375875.251244843</v>
       </c>
     </row>
     <row r="379">
@@ -5667,7 +5667,7 @@
         <v>5</v>
       </c>
       <c r="D379" t="n">
-        <v>1926.38667112924</v>
+        <v>375262.090585373</v>
       </c>
     </row>
     <row r="380">
@@ -5681,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="D380" t="n">
-        <v>1842.66493660257</v>
+        <v>375233.924669651</v>
       </c>
     </row>
     <row r="381">
@@ -5695,7 +5695,7 @@
         <v>5</v>
       </c>
       <c r="D381" t="n">
-        <v>1757.21750553142</v>
+        <v>375232.544800411</v>
       </c>
     </row>
     <row r="382">
@@ -5709,7 +5709,7 @@
         <v>5</v>
       </c>
       <c r="D382" t="n">
-        <v>1675.08604031518</v>
+        <v>375232.399464951</v>
       </c>
     </row>
     <row r="383">
@@ -5723,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="D383" t="n">
-        <v>1597.43874688306</v>
+        <v>375232.311044669</v>
       </c>
     </row>
     <row r="384">
@@ -5737,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="D384" t="n">
-        <v>1524.32266767149</v>
+        <v>375232.225248381</v>
       </c>
     </row>
     <row r="385">
@@ -5751,7 +5751,7 @@
         <v>5</v>
       </c>
       <c r="D385" t="n">
-        <v>1455.49134889809</v>
+        <v>375232.139573087</v>
       </c>
     </row>
     <row r="386">
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="D386" t="n">
-        <v>1390.64122273641</v>
+        <v>375232.053903388</v>
       </c>
     </row>
     <row r="387">
@@ -5779,7 +5779,7 @@
         <v>5</v>
       </c>
       <c r="D387" t="n">
-        <v>1329.47569986322</v>
+        <v>375231.968233967</v>
       </c>
     </row>
     <row r="388">
@@ -5793,7 +5793,7 @@
         <v>5</v>
       </c>
       <c r="D388" t="n">
-        <v>1271.7206245875</v>
+        <v>375231.882564577</v>
       </c>
     </row>
     <row r="389">
@@ -5807,7 +5807,7 @@
         <v>5</v>
       </c>
       <c r="D389" t="n">
-        <v>1217.12630303908</v>
+        <v>375231.796895209</v>
       </c>
     </row>
     <row r="390">
@@ -5821,7 +5821,7 @@
         <v>5</v>
       </c>
       <c r="D390" t="n">
-        <v>1165.4662957064</v>
+        <v>375231.711225859</v>
       </c>
     </row>
     <row r="391">
@@ -5835,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="D391" t="n">
-        <v>1116.53469724423</v>
+        <v>375231.625556529</v>
       </c>
     </row>
     <row r="392">
@@ -5849,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="D392" t="n">
-        <v>1070.14402654966</v>
+        <v>375231.539887218</v>
       </c>
     </row>
     <row r="393">
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="D393" t="n">
-        <v>1026.12342846769</v>
+        <v>375231.454217926</v>
       </c>
     </row>
     <row r="394">
@@ -5877,7 +5877,7 @@
         <v>5</v>
       </c>
       <c r="D394" t="n">
-        <v>984.316724341418</v>
+        <v>375231.368548654</v>
       </c>
     </row>
     <row r="395">
@@ -5891,7 +5891,7 @@
         <v>5</v>
       </c>
       <c r="D395" t="n">
-        <v>944.580737653228</v>
+        <v>375231.282879402</v>
       </c>
     </row>
     <row r="396">
@@ -5905,7 +5905,7 @@
         <v>5</v>
       </c>
       <c r="D396" t="n">
-        <v>906.78409981941</v>
+        <v>375231.197210169</v>
       </c>
     </row>
     <row r="397">
@@ -5919,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="D397" t="n">
-        <v>870.806580867233</v>
+        <v>375231.111540956</v>
       </c>
     </row>
     <row r="398">
@@ -5933,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="D398" t="n">
-        <v>836.536860033131</v>
+        <v>375231.025871762</v>
       </c>
     </row>
     <row r="399">
@@ -5947,7 +5947,7 @@
         <v>5</v>
       </c>
       <c r="D399" t="n">
-        <v>803.872489863392</v>
+        <v>375230.940202588</v>
       </c>
     </row>
     <row r="400">
@@ -5961,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="D400" t="n">
-        <v>772.718893689109</v>
+        <v>375230.854533433</v>
       </c>
     </row>
     <row r="401">
@@ -5975,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="D401" t="n">
-        <v>742.988481295669</v>
+        <v>375230.768864298</v>
       </c>
     </row>
     <row r="402">
@@ -5989,7 +5989,7 @@
         <v>5</v>
       </c>
       <c r="D402" t="n">
-        <v>714.600129788653</v>
+        <v>375230.683195183</v>
       </c>
     </row>
     <row r="403">
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="D403" t="n">
-        <v>687.478544505947</v>
+        <v>375230.597526087</v>
       </c>
     </row>
     <row r="404">
@@ -6017,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="D404" t="n">
-        <v>661.553744160677</v>
+        <v>375230.51185701</v>
       </c>
     </row>
     <row r="405">
@@ -6031,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="D405" t="n">
-        <v>636.760674324085</v>
+        <v>375230.426187954</v>
       </c>
     </row>
     <row r="406">
@@ -6045,7 +6045,7 @@
         <v>5</v>
       </c>
       <c r="D406" t="n">
-        <v>613.038729336801</v>
+        <v>375230.340518916</v>
       </c>
     </row>
     <row r="407">
@@ -6059,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="D407" t="n">
-        <v>590.33132918284</v>
+        <v>375230.254849899</v>
       </c>
     </row>
     <row r="408">
@@ -6073,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="D408" t="n">
-        <v>568.585650644514</v>
+        <v>375230.1691809</v>
       </c>
     </row>
     <row r="409">
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
       <c r="D410" t="n">
-        <v>1143.16291684731</v>
+        <v>997.677963816497</v>
       </c>
     </row>
     <row r="411">
@@ -6115,7 +6115,7 @@
         <v>5</v>
       </c>
       <c r="D411" t="n">
-        <v>1297.55072777266</v>
+        <v>989.479291173671</v>
       </c>
     </row>
     <row r="412">
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="D412" t="n">
-        <v>1442.74768118965</v>
+        <v>962.878315745666</v>
       </c>
     </row>
     <row r="413">
@@ -6143,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="D413" t="n">
-        <v>1528.17986860645</v>
+        <v>15088.159399782</v>
       </c>
     </row>
     <row r="414">
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="D414" t="n">
-        <v>1509.57054020184</v>
+        <v>412130.026552092</v>
       </c>
     </row>
     <row r="415">
@@ -6171,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="D415" t="n">
-        <v>1417.31066242374</v>
+        <v>407273.319039947</v>
       </c>
     </row>
     <row r="416">
@@ -6185,7 +6185,7 @@
         <v>5</v>
       </c>
       <c r="D416" t="n">
-        <v>1303.19922574281</v>
+        <v>407109.193043411</v>
       </c>
     </row>
     <row r="417">
@@ -6199,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="D417" t="n">
-        <v>1191.09482009412</v>
+        <v>407103.289190871</v>
       </c>
     </row>
     <row r="418">
@@ -6213,7 +6213,7 @@
         <v>5</v>
       </c>
       <c r="D418" t="n">
-        <v>1087.35962038542</v>
+        <v>407102.990055528</v>
       </c>
     </row>
     <row r="419">
@@ -6227,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="D419" t="n">
-        <v>992.821884837591</v>
+        <v>407102.889792963</v>
       </c>
     </row>
     <row r="420">
@@ -6241,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="D420" t="n">
-        <v>906.943927920001</v>
+        <v>407102.796587474</v>
       </c>
     </row>
     <row r="421">
@@ -6255,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="D421" t="n">
-        <v>828.935580088836</v>
+        <v>407102.703632427</v>
       </c>
     </row>
     <row r="422">
@@ -6269,7 +6269,7 @@
         <v>5</v>
       </c>
       <c r="D422" t="n">
-        <v>758.02236925439</v>
+        <v>407102.610686288</v>
       </c>
     </row>
     <row r="423">
@@ -6283,7 +6283,7 @@
         <v>5</v>
       </c>
       <c r="D423" t="n">
-        <v>693.501075767898</v>
+        <v>407102.517740485</v>
       </c>
     </row>
     <row r="424">
@@ -6297,7 +6297,7 @@
         <v>5</v>
       </c>
       <c r="D424" t="n">
-        <v>634.743703388492</v>
+        <v>407102.424794715</v>
       </c>
     </row>
     <row r="425">
@@ -6311,7 +6311,7 @@
         <v>5</v>
       </c>
       <c r="D425" t="n">
-        <v>581.191907657869</v>
+        <v>407102.331848968</v>
       </c>
     </row>
     <row r="426">
@@ -6325,7 +6325,7 @@
         <v>5</v>
       </c>
       <c r="D426" t="n">
-        <v>532.348184810721</v>
+        <v>407102.238903241</v>
       </c>
     </row>
     <row r="427">
@@ -6339,7 +6339,7 @@
         <v>5</v>
       </c>
       <c r="D427" t="n">
-        <v>487.768111378878</v>
+        <v>407102.145957535</v>
       </c>
     </row>
     <row r="428">
@@ -6353,7 +6353,7 @@
         <v>5</v>
       </c>
       <c r="D428" t="n">
-        <v>447.054271411943</v>
+        <v>407102.053011851</v>
       </c>
     </row>
     <row r="429">
@@ -6367,7 +6367,7 @@
         <v>5</v>
       </c>
       <c r="D429" t="n">
-        <v>409.850160940415</v>
+        <v>407101.960066187</v>
       </c>
     </row>
     <row r="430">
@@ -6381,7 +6381,7 @@
         <v>5</v>
       </c>
       <c r="D430" t="n">
-        <v>375.835522324335</v>
+        <v>407101.867120545</v>
       </c>
     </row>
     <row r="431">
@@ -6395,7 +6395,7 @@
         <v>5</v>
       </c>
       <c r="D431" t="n">
-        <v>344.721994795642</v>
+        <v>407101.774174923</v>
       </c>
     </row>
     <row r="432">
@@ -6409,7 +6409,7 @@
         <v>5</v>
       </c>
       <c r="D432" t="n">
-        <v>316.249960315747</v>
+        <v>407101.681229323</v>
       </c>
     </row>
     <row r="433">
@@ -6423,7 +6423,7 @@
         <v>5</v>
       </c>
       <c r="D433" t="n">
-        <v>290.184710612462</v>
+        <v>407101.588283745</v>
       </c>
     </row>
     <row r="434">
@@ -6437,7 +6437,7 @@
         <v>5</v>
       </c>
       <c r="D434" t="n">
-        <v>266.314113123144</v>
+        <v>407101.495338187</v>
       </c>
     </row>
     <row r="435">
@@ -6451,7 +6451,7 @@
         <v>5</v>
       </c>
       <c r="D435" t="n">
-        <v>244.446115036427</v>
+        <v>407101.402392651</v>
       </c>
     </row>
     <row r="436">
@@ -6465,7 +6465,7 @@
         <v>5</v>
       </c>
       <c r="D436" t="n">
-        <v>224.406598836663</v>
+        <v>407101.309447136</v>
       </c>
     </row>
     <row r="437">
@@ -6479,7 +6479,7 @@
         <v>5</v>
       </c>
       <c r="D437" t="n">
-        <v>206.037523898178</v>
+        <v>407101.216501642</v>
       </c>
     </row>
     <row r="438">
@@ -6493,7 +6493,7 @@
         <v>5</v>
       </c>
       <c r="D438" t="n">
-        <v>189.195300410446</v>
+        <v>407101.123556169</v>
       </c>
     </row>
     <row r="439">
@@ -6507,7 +6507,7 @@
         <v>5</v>
       </c>
       <c r="D439" t="n">
-        <v>173.7493048709</v>
+        <v>407101.030610718</v>
       </c>
     </row>
     <row r="440">
@@ -6521,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="D440" t="n">
-        <v>159.580711204044</v>
+        <v>407100.937665288</v>
       </c>
     </row>
     <row r="441">
@@ -6535,7 +6535,7 @@
         <v>5</v>
       </c>
       <c r="D441" t="n">
-        <v>146.581472956867</v>
+        <v>407100.844719879</v>
       </c>
     </row>
     <row r="442">
@@ -6549,7 +6549,7 @@
         <v>5</v>
       </c>
       <c r="D442" t="n">
-        <v>134.652844546812</v>
+        <v>407100.751774491</v>
       </c>
     </row>
     <row r="443">
@@ -6563,7 +6563,7 @@
         <v>5</v>
       </c>
       <c r="D443" t="n">
-        <v>123.704821332774</v>
+        <v>407100.658829125</v>
       </c>
     </row>
     <row r="444">
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
       <c r="D444" t="n">
-        <v>113.655277933931</v>
+        <v>407100.565883779</v>
       </c>
     </row>
     <row r="445">
@@ -6591,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="D445" t="n">
-        <v>104.429164665125</v>
+        <v>407100.472938455</v>
       </c>
     </row>
     <row r="446">
@@ -6619,7 +6619,7 @@
         <v>6</v>
       </c>
       <c r="D447" t="n">
-        <v>19240.5244737594</v>
+        <v>19049.8188051171</v>
       </c>
     </row>
     <row r="448">
@@ -6633,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="D448" t="n">
-        <v>36834.6646219824</v>
+        <v>36139.110700501</v>
       </c>
     </row>
     <row r="449">
@@ -6647,7 +6647,7 @@
         <v>6</v>
       </c>
       <c r="D449" t="n">
-        <v>69875.8195520244</v>
+        <v>68026.3854665056</v>
       </c>
     </row>
     <row r="450">
@@ -6661,7 +6661,7 @@
         <v>6</v>
       </c>
       <c r="D450" t="n">
-        <v>130394.450933085</v>
+        <v>126220.106684087</v>
       </c>
     </row>
     <row r="451">
@@ -6675,7 +6675,7 @@
         <v>6</v>
       </c>
       <c r="D451" t="n">
-        <v>236443.438636668</v>
+        <v>228246.911647816</v>
       </c>
     </row>
     <row r="452">
@@ -6689,7 +6689,7 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>408863.522615658</v>
+        <v>395150.569288404</v>
       </c>
     </row>
     <row r="453">
@@ -6703,7 +6703,7 @@
         <v>6</v>
       </c>
       <c r="D453" t="n">
-        <v>658101.638955436</v>
+        <v>639000.382864563</v>
       </c>
     </row>
     <row r="454">
@@ -6717,7 +6717,7 @@
         <v>6</v>
       </c>
       <c r="D454" t="n">
-        <v>963787.327179959</v>
+        <v>938227.82329152</v>
       </c>
     </row>
     <row r="455">
@@ -6731,7 +6731,7 @@
         <v>6</v>
       </c>
       <c r="D455" t="n">
-        <v>1271749.95202469</v>
+        <v>1234880.16782677</v>
       </c>
     </row>
     <row r="456">
@@ -6745,7 +6745,7 @@
         <v>6</v>
       </c>
       <c r="D456" t="n">
-        <v>1526567.42356433</v>
+        <v>1468412.90392729</v>
       </c>
     </row>
     <row r="457">
@@ -6759,7 +6759,7 @@
         <v>6</v>
       </c>
       <c r="D457" t="n">
-        <v>1705477.86316761</v>
+        <v>1612066.83203748</v>
       </c>
     </row>
     <row r="458">
@@ -6773,7 +6773,7 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>1817288.16840518</v>
+        <v>1671583.92723501</v>
       </c>
     </row>
     <row r="459">
@@ -6787,7 +6787,7 @@
         <v>6</v>
       </c>
       <c r="D459" t="n">
-        <v>1882314.18471827</v>
+        <v>1662991.57863106</v>
       </c>
     </row>
     <row r="460">
@@ -6801,7 +6801,7 @@
         <v>6</v>
       </c>
       <c r="D460" t="n">
-        <v>1918685.36352624</v>
+        <v>1597348.61278382</v>
       </c>
     </row>
     <row r="461">
@@ -6815,7 +6815,7 @@
         <v>6</v>
       </c>
       <c r="D461" t="n">
-        <v>1938685.6185028</v>
+        <v>1476313.89963315</v>
       </c>
     </row>
     <row r="462">
@@ -6829,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
-        <v>1949657.50256496</v>
+        <v>1293003.93504384</v>
       </c>
     </row>
     <row r="463">
@@ -6843,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="D463" t="n">
-        <v>1955727.51721072</v>
+        <v>1036426.42383261</v>
       </c>
     </row>
     <row r="464">
@@ -6857,7 +6857,7 @@
         <v>6</v>
       </c>
       <c r="D464" t="n">
-        <v>1959145.14511127</v>
+        <v>705595.947657818</v>
       </c>
     </row>
     <row r="465">
@@ -6871,7 +6871,7 @@
         <v>6</v>
       </c>
       <c r="D465" t="n">
-        <v>1961120.0337013</v>
+        <v>370238.776688272</v>
       </c>
     </row>
     <row r="466">
@@ -6885,7 +6885,7 @@
         <v>6</v>
       </c>
       <c r="D466" t="n">
-        <v>1962300.40161085</v>
+        <v>202023.427218058</v>
       </c>
     </row>
     <row r="467">
@@ -6899,7 +6899,7 @@
         <v>6</v>
       </c>
       <c r="D467" t="n">
-        <v>1963034.66175825</v>
+        <v>117912.860005142</v>
       </c>
     </row>
     <row r="468">
@@ -6913,7 +6913,7 @@
         <v>6</v>
       </c>
       <c r="D468" t="n">
-        <v>1963511.64739438</v>
+        <v>71385.076056696</v>
       </c>
     </row>
     <row r="469">
@@ -6927,7 +6927,7 @@
         <v>6</v>
       </c>
       <c r="D469" t="n">
-        <v>1963834.74910589</v>
+        <v>44144.9623288256</v>
       </c>
     </row>
     <row r="470">
@@ -6941,7 +6941,7 @@
         <v>6</v>
       </c>
       <c r="D470" t="n">
-        <v>1964062.68104831</v>
+        <v>27651.5957337976</v>
       </c>
     </row>
     <row r="471">
@@ -6955,7 +6955,7 @@
         <v>6</v>
       </c>
       <c r="D471" t="n">
-        <v>1964228.7196243</v>
+        <v>17457.889975787</v>
       </c>
     </row>
     <row r="472">
@@ -6969,7 +6969,7 @@
         <v>6</v>
       </c>
       <c r="D472" t="n">
-        <v>1964352.98957016</v>
+        <v>11076.681799042</v>
       </c>
     </row>
     <row r="473">
@@ -6983,7 +6983,7 @@
         <v>6</v>
       </c>
       <c r="D473" t="n">
-        <v>1964447.79883691</v>
+        <v>7049.87121982358</v>
       </c>
     </row>
     <row r="474">
@@ -6997,7 +6997,7 @@
         <v>6</v>
       </c>
       <c r="D474" t="n">
-        <v>1964521.19895789</v>
+        <v>4495.84362937942</v>
       </c>
     </row>
     <row r="475">
@@ -7011,7 +7011,7 @@
         <v>6</v>
       </c>
       <c r="D475" t="n">
-        <v>1964578.54006646</v>
+        <v>2870.69448027728</v>
       </c>
     </row>
     <row r="476">
@@ -7025,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="D476" t="n">
-        <v>1964623.71759098</v>
+        <v>1834.47117789577</v>
       </c>
     </row>
     <row r="477">
@@ -7039,7 +7039,7 @@
         <v>6</v>
       </c>
       <c r="D477" t="n">
-        <v>1964659.52082965</v>
+        <v>1172.8894817246</v>
       </c>
     </row>
     <row r="478">
@@ -7053,7 +7053,7 @@
         <v>6</v>
       </c>
       <c r="D478" t="n">
-        <v>1964687.93716013</v>
+        <v>750.145196844158</v>
       </c>
     </row>
     <row r="479">
@@ -7067,7 +7067,7 @@
         <v>6</v>
       </c>
       <c r="D479" t="n">
-        <v>1964710.5368711</v>
+        <v>479.8709154791</v>
       </c>
     </row>
     <row r="480">
@@ -7081,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="D480" t="n">
-        <v>1964728.58881159</v>
+        <v>307.016470751493</v>
       </c>
     </row>
     <row r="481">
@@ -7095,7 +7095,7 @@
         <v>6</v>
       </c>
       <c r="D481" t="n">
-        <v>1964742.98711624</v>
+        <v>196.442818832337</v>
       </c>
     </row>
     <row r="482">
@@ -7109,7 +7109,7 @@
         <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>1964754.45444567</v>
+        <v>125.699773769449</v>
       </c>
     </row>
     <row r="483">
@@ -7137,7 +7137,7 @@
         <v>6</v>
       </c>
       <c r="D484" t="n">
-        <v>22069.703139278</v>
+        <v>21850.9960391863</v>
       </c>
     </row>
     <row r="485">
@@ -7151,7 +7151,7 @@
         <v>6</v>
       </c>
       <c r="D485" t="n">
-        <v>48318.844071901</v>
+        <v>47408.5005887444</v>
       </c>
     </row>
     <row r="486">
@@ -7165,7 +7165,7 @@
         <v>6</v>
       </c>
       <c r="D486" t="n">
-        <v>104038.262837419</v>
+        <v>101311.697268668</v>
       </c>
     </row>
     <row r="487">
@@ -7179,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="D487" t="n">
-        <v>216566.129996693</v>
+        <v>209847.628973161</v>
       </c>
     </row>
     <row r="488">
@@ -7193,7 +7193,7 @@
         <v>6</v>
       </c>
       <c r="D488" t="n">
-        <v>422815.717067024</v>
+        <v>409329.306006944</v>
       </c>
     </row>
     <row r="489">
@@ -7207,7 +7207,7 @@
         <v>6</v>
       </c>
       <c r="D489" t="n">
-        <v>741789.52591048</v>
+        <v>719692.989631338</v>
       </c>
     </row>
     <row r="490">
@@ -7221,7 +7221,7 @@
         <v>6</v>
       </c>
       <c r="D490" t="n">
-        <v>1125714.63780586</v>
+        <v>1087611.55029046</v>
       </c>
     </row>
     <row r="491">
@@ -7235,7 +7235,7 @@
         <v>6</v>
       </c>
       <c r="D491" t="n">
-        <v>1470120.6689331</v>
+        <v>1395212.52863809</v>
       </c>
     </row>
     <row r="492">
@@ -7249,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="D492" t="n">
-        <v>1706738.16527182</v>
+        <v>1554466.18566612</v>
       </c>
     </row>
     <row r="493">
@@ -7263,7 +7263,7 @@
         <v>6</v>
       </c>
       <c r="D493" t="n">
-        <v>1841170.72495633</v>
+        <v>1543690.25792293</v>
       </c>
     </row>
     <row r="494">
@@ -7277,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="D494" t="n">
-        <v>1909494.66252169</v>
+        <v>1356105.885765</v>
       </c>
     </row>
     <row r="495">
@@ -7291,7 +7291,7 @@
         <v>6</v>
       </c>
       <c r="D495" t="n">
-        <v>1942310.09824519</v>
+        <v>968838.257765292</v>
       </c>
     </row>
     <row r="496">
@@ -7305,7 +7305,7 @@
         <v>6</v>
       </c>
       <c r="D496" t="n">
-        <v>1957685.76980521</v>
+        <v>430067.681021459</v>
       </c>
     </row>
     <row r="497">
@@ -7319,7 +7319,7 @@
         <v>6</v>
       </c>
       <c r="D497" t="n">
-        <v>1964840.52763737</v>
+        <v>160964.835082672</v>
       </c>
     </row>
     <row r="498">
@@ -7333,7 +7333,7 @@
         <v>6</v>
       </c>
       <c r="D498" t="n">
-        <v>1968186.72982939</v>
+        <v>66483.5668457747</v>
       </c>
     </row>
     <row r="499">
@@ -7347,7 +7347,7 @@
         <v>6</v>
       </c>
       <c r="D499" t="n">
-        <v>1969776.7065118</v>
+        <v>28519.0006206155</v>
       </c>
     </row>
     <row r="500">
@@ -7361,7 +7361,7 @@
         <v>6</v>
       </c>
       <c r="D500" t="n">
-        <v>1970554.29762538</v>
+        <v>12428.0462008857</v>
       </c>
     </row>
     <row r="501">
@@ -7375,7 +7375,7 @@
         <v>6</v>
       </c>
       <c r="D501" t="n">
-        <v>1970952.30161475</v>
+        <v>5452.80215922974</v>
       </c>
     </row>
     <row r="502">
@@ -7389,7 +7389,7 @@
         <v>6</v>
       </c>
       <c r="D502" t="n">
-        <v>1971168.86229696</v>
+        <v>2399.51251844649</v>
       </c>
     </row>
     <row r="503">
@@ -7403,7 +7403,7 @@
         <v>6</v>
       </c>
       <c r="D503" t="n">
-        <v>1971296.36683967</v>
+        <v>1057.28286130615</v>
       </c>
     </row>
     <row r="504">
@@ -7417,7 +7417,7 @@
         <v>6</v>
       </c>
       <c r="D504" t="n">
-        <v>1971377.7590596</v>
+        <v>466.13113504879</v>
       </c>
     </row>
     <row r="505">
@@ -7431,7 +7431,7 @@
         <v>6</v>
       </c>
       <c r="D505" t="n">
-        <v>1971433.70055624</v>
+        <v>205.558167919368</v>
       </c>
     </row>
     <row r="506">
@@ -7445,7 +7445,7 @@
         <v>6</v>
       </c>
       <c r="D506" t="n">
-        <v>1971474.38090743</v>
+        <v>90.6587694656962</v>
       </c>
     </row>
     <row r="507">
@@ -7459,7 +7459,7 @@
         <v>6</v>
       </c>
       <c r="D507" t="n">
-        <v>1971505.14926857</v>
+        <v>39.9858529518885</v>
       </c>
     </row>
     <row r="508">
@@ -7473,7 +7473,7 @@
         <v>6</v>
       </c>
       <c r="D508" t="n">
-        <v>1971529.02497696</v>
+        <v>17.6365024114673</v>
       </c>
     </row>
     <row r="509">
@@ -7487,7 +7487,7 @@
         <v>6</v>
       </c>
       <c r="D509" t="n">
-        <v>1971547.91995438</v>
+        <v>7.77898373981651</v>
       </c>
     </row>
     <row r="510">
@@ -7501,7 +7501,7 @@
         <v>6</v>
       </c>
       <c r="D510" t="n">
-        <v>1971562.9586003</v>
+        <v>3.43111483476634</v>
       </c>
     </row>
     <row r="511">
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="D511" t="n">
-        <v>1971574.99165295</v>
+        <v>1.51338215292693</v>
       </c>
     </row>
     <row r="512">
@@ -7529,7 +7529,7 @@
         <v>6</v>
       </c>
       <c r="D512" t="n">
-        <v>1971584.70823462</v>
+        <v>0.667517226463545</v>
       </c>
     </row>
     <row r="513">
@@ -7543,7 +7543,7 @@
         <v>6</v>
       </c>
       <c r="D513" t="n">
-        <v>1971592.52686953</v>
+        <v>0.294426342026721</v>
       </c>
     </row>
     <row r="514">
@@ -7557,7 +7557,7 @@
         <v>6</v>
       </c>
       <c r="D514" t="n">
-        <v>1971598.76038499</v>
+        <v>0.129864631419861</v>
       </c>
     </row>
     <row r="515">
@@ -7571,7 +7571,7 @@
         <v>6</v>
       </c>
       <c r="D515" t="n">
-        <v>1971603.83005018</v>
+        <v>0.0572802565844935</v>
       </c>
     </row>
     <row r="516">
@@ -7585,7 +7585,7 @@
         <v>6</v>
       </c>
       <c r="D516" t="n">
-        <v>1971607.95140934</v>
+        <v>0.0252649764684782</v>
       </c>
     </row>
     <row r="517">
@@ -7599,7 +7599,7 @@
         <v>6</v>
       </c>
       <c r="D517" t="n">
-        <v>1971611.18858542</v>
+        <v>0.0111437920793135</v>
       </c>
     </row>
     <row r="518">
@@ -7613,7 +7613,7 @@
         <v>6</v>
       </c>
       <c r="D518" t="n">
-        <v>1971613.8454257</v>
+        <v>0.00491530574231099</v>
       </c>
     </row>
     <row r="519">
@@ -7627,7 +7627,7 @@
         <v>6</v>
       </c>
       <c r="D519" t="n">
-        <v>1971616.06842885</v>
+        <v>0.00216807731561173</v>
       </c>
     </row>
     <row r="520">
@@ -7655,7 +7655,7 @@
         <v>6</v>
       </c>
       <c r="D521" t="n">
-        <v>25395.2452263681</v>
+        <v>25142.4932568575</v>
       </c>
     </row>
     <row r="522">
@@ -7669,7 +7669,7 @@
         <v>6</v>
       </c>
       <c r="D522" t="n">
-        <v>63697.8165250066</v>
+        <v>62487.6717811114</v>
       </c>
     </row>
     <row r="523">
@@ -7683,7 +7683,7 @@
         <v>6</v>
       </c>
       <c r="D523" t="n">
-        <v>155112.751741644</v>
+        <v>151021.478176892</v>
       </c>
     </row>
     <row r="524">
@@ -7697,7 +7697,7 @@
         <v>6</v>
       </c>
       <c r="D524" t="n">
-        <v>353391.921364845</v>
+        <v>342603.775782583</v>
       </c>
     </row>
     <row r="525">
@@ -7711,7 +7711,7 @@
         <v>6</v>
       </c>
       <c r="D525" t="n">
-        <v>706897.2700404</v>
+        <v>684867.50481335</v>
       </c>
     </row>
     <row r="526">
@@ -7725,7 +7725,7 @@
         <v>6</v>
       </c>
       <c r="D526" t="n">
-        <v>1161895.5842686</v>
+        <v>1107933.3653485</v>
       </c>
     </row>
     <row r="527">
@@ -7739,7 +7739,7 @@
         <v>6</v>
       </c>
       <c r="D527" t="n">
-        <v>1553553.69892021</v>
+        <v>1383379.95869004</v>
       </c>
     </row>
     <row r="528">
@@ -7753,7 +7753,7 @@
         <v>6</v>
       </c>
       <c r="D528" t="n">
-        <v>1789906.7305083</v>
+        <v>1267736.72911426</v>
       </c>
     </row>
     <row r="529">
@@ -7767,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="D529" t="n">
-        <v>1903274.67110668</v>
+        <v>594474.205824633</v>
       </c>
     </row>
     <row r="530">
@@ -7781,7 +7781,7 @@
         <v>6</v>
       </c>
       <c r="D530" t="n">
-        <v>1951579.49863539</v>
+        <v>121536.241603196</v>
       </c>
     </row>
     <row r="531">
@@ -7795,7 +7795,7 @@
         <v>6</v>
       </c>
       <c r="D531" t="n">
-        <v>1971037.67681643</v>
+        <v>28324.1904419566</v>
       </c>
     </row>
     <row r="532">
@@ -7809,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="D532" t="n">
-        <v>1978624.45255643</v>
+        <v>6815.31279912342</v>
       </c>
     </row>
     <row r="533">
@@ -7823,7 +7823,7 @@
         <v>6</v>
       </c>
       <c r="D533" t="n">
-        <v>1981481.64643564</v>
+        <v>1652.31274060755</v>
       </c>
     </row>
     <row r="534">
@@ -7837,7 +7837,7 @@
         <v>6</v>
       </c>
       <c r="D534" t="n">
-        <v>1982481.99860743</v>
+        <v>401.319457522975</v>
       </c>
     </row>
     <row r="535">
@@ -7851,7 +7851,7 @@
         <v>6</v>
       </c>
       <c r="D535" t="n">
-        <v>1982765.01849616</v>
+        <v>97.5170154441937</v>
       </c>
     </row>
     <row r="536">
@@ -7865,7 +7865,7 @@
         <v>6</v>
       </c>
       <c r="D536" t="n">
-        <v>1982777.99793268</v>
+        <v>23.6983144179131</v>
       </c>
     </row>
     <row r="537">
@@ -7879,7 +7879,7 @@
         <v>6</v>
       </c>
       <c r="D537" t="n">
-        <v>1982695.81686225</v>
+        <v>5.75925195455264</v>
       </c>
     </row>
     <row r="538">
@@ -7893,7 +7893,7 @@
         <v>6</v>
       </c>
       <c r="D538" t="n">
-        <v>1982586.18614565</v>
+        <v>1.39964432172603</v>
       </c>
     </row>
     <row r="539">
@@ -7907,7 +7907,7 @@
         <v>6</v>
       </c>
       <c r="D539" t="n">
-        <v>1982474.57329438</v>
+        <v>0.34014978234781</v>
       </c>
     </row>
     <row r="540">
@@ -7921,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="D540" t="n">
-        <v>1982370.06618952</v>
+        <v>0.0826651557686504</v>
       </c>
     </row>
     <row r="541">
@@ -7935,7 +7935,7 @@
         <v>6</v>
       </c>
       <c r="D541" t="n">
-        <v>1982275.41466945</v>
+        <v>0.0200897464255869</v>
       </c>
     </row>
     <row r="542">
@@ -7949,7 +7949,7 @@
         <v>6</v>
       </c>
       <c r="D542" t="n">
-        <v>1982190.94738912</v>
+        <v>0.00488240967968062</v>
       </c>
     </row>
     <row r="543">
@@ -7963,7 +7963,7 @@
         <v>6</v>
       </c>
       <c r="D543" t="n">
-        <v>1982116.07943817</v>
+        <v>0.00118659869673906</v>
       </c>
     </row>
     <row r="544">
@@ -7977,7 +7977,7 @@
         <v>6</v>
       </c>
       <c r="D544" t="n">
-        <v>1982049.97521723</v>
+        <v>0.000288345259421134</v>
       </c>
     </row>
     <row r="545">
@@ -7991,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="D545" t="n">
-        <v>1981991.82038507</v>
+        <v>0.0000700334322356638</v>
       </c>
     </row>
     <row r="546">
@@ -8005,7 +8005,7 @@
         <v>6</v>
       </c>
       <c r="D546" t="n">
-        <v>1981940.57873961</v>
+        <v>0.0000171063503859199</v>
       </c>
     </row>
     <row r="547">
@@ -8019,7 +8019,7 @@
         <v>6</v>
       </c>
       <c r="D547" t="n">
-        <v>1981895.37905456</v>
+        <v>0.00000409384258514998</v>
       </c>
     </row>
     <row r="548">
@@ -8033,7 +8033,7 @@
         <v>6</v>
       </c>
       <c r="D548" t="n">
-        <v>1981855.85968377</v>
+        <v>0.000000988120473664914</v>
       </c>
     </row>
     <row r="549">
@@ -8047,7 +8047,7 @@
         <v>6</v>
       </c>
       <c r="D549" t="n">
-        <v>1981821.10778416</v>
+        <v>0.000000257421219426705</v>
       </c>
     </row>
     <row r="550">
@@ -8061,7 +8061,7 @@
         <v>6</v>
       </c>
       <c r="D550" t="n">
-        <v>1981790.62281622</v>
+        <v>0.0000000654618134627881</v>
       </c>
     </row>
     <row r="551">
@@ -8075,7 +8075,7 @@
         <v>6</v>
       </c>
       <c r="D551" t="n">
-        <v>1981763.87613381</v>
+        <v>0.00000000907337933131266</v>
       </c>
     </row>
     <row r="552">
@@ -8089,7 +8089,7 @@
         <v>6</v>
       </c>
       <c r="D552" t="n">
-        <v>1981740.44372102</v>
+        <v>-0.00000000514394214811287</v>
       </c>
     </row>
     <row r="553">
@@ -8103,7 +8103,7 @@
         <v>6</v>
       </c>
       <c r="D553" t="n">
-        <v>1981719.90246586</v>
+        <v>-0.00000000508634314559108</v>
       </c>
     </row>
     <row r="554">
@@ -8117,7 +8117,7 @@
         <v>6</v>
       </c>
       <c r="D554" t="n">
-        <v>1981701.91510011</v>
+        <v>-0.00000000260782042243592</v>
       </c>
     </row>
     <row r="555">
@@ -8131,7 +8131,7 @@
         <v>6</v>
       </c>
       <c r="D555" t="n">
-        <v>1981686.16056987</v>
+        <v>-0.000000000916929388693377</v>
       </c>
     </row>
     <row r="556">
@@ -8145,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="D556" t="n">
-        <v>1981672.36054151</v>
+        <v>-0.000000000181826625145147</v>
       </c>
     </row>
     <row r="557">
@@ -8173,7 +8173,7 @@
         <v>6</v>
       </c>
       <c r="D558" t="n">
-        <v>29124.6215614371</v>
+        <v>28833.3845223952</v>
       </c>
     </row>
     <row r="559">
@@ -8187,7 +8187,7 @@
         <v>6</v>
       </c>
       <c r="D559" t="n">
-        <v>83261.4820272562</v>
+        <v>81668.3058033553</v>
       </c>
     </row>
     <row r="560">
@@ -8201,7 +8201,7 @@
         <v>6</v>
       </c>
       <c r="D560" t="n">
-        <v>226350.95333738</v>
+        <v>220402.067147994</v>
       </c>
     </row>
     <row r="561">
@@ -8215,7 +8215,7 @@
         <v>6</v>
       </c>
       <c r="D561" t="n">
-        <v>545005.967174359</v>
+        <v>529204.657376909</v>
       </c>
     </row>
     <row r="562">
@@ -8229,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="D562" t="n">
-        <v>1046371.27256759</v>
+        <v>990525.504371476</v>
       </c>
     </row>
     <row r="563">
@@ -8243,7 +8243,7 @@
         <v>6</v>
       </c>
       <c r="D563" t="n">
-        <v>1523559.64371875</v>
+        <v>1106262.52479849</v>
       </c>
     </row>
     <row r="564">
@@ -8257,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="D564" t="n">
-        <v>1803688.9793489</v>
+        <v>204454.444903408</v>
       </c>
     </row>
     <row r="565">
@@ -8271,7 +8271,7 @@
         <v>6</v>
       </c>
       <c r="D565" t="n">
-        <v>1924193.27625684</v>
+        <v>20181.797540059</v>
       </c>
     </row>
     <row r="566">
@@ -8285,7 +8285,7 @@
         <v>6</v>
       </c>
       <c r="D566" t="n">
-        <v>1969008.03459294</v>
+        <v>2094.3074061861</v>
       </c>
     </row>
     <row r="567">
@@ -8299,7 +8299,7 @@
         <v>6</v>
       </c>
       <c r="D567" t="n">
-        <v>1984760.40786305</v>
+        <v>218.433734795744</v>
       </c>
     </row>
     <row r="568">
@@ -8313,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="D568" t="n">
-        <v>1990191.30008414</v>
+        <v>22.7943939672043</v>
       </c>
     </row>
     <row r="569">
@@ -8327,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="D569" t="n">
-        <v>1992055.10801061</v>
+        <v>2.37881449568664</v>
       </c>
     </row>
     <row r="570">
@@ -8341,7 +8341,7 @@
         <v>6</v>
       </c>
       <c r="D570" t="n">
-        <v>1992697.59040489</v>
+        <v>0.24825381393162</v>
       </c>
     </row>
     <row r="571">
@@ -8355,7 +8355,7 @@
         <v>6</v>
       </c>
       <c r="D571" t="n">
-        <v>1992923.14513138</v>
+        <v>0.0259077937502493</v>
       </c>
     </row>
     <row r="572">
@@ -8369,7 +8369,7 @@
         <v>6</v>
       </c>
       <c r="D572" t="n">
-        <v>1993006.16863071</v>
+        <v>0.00270381465462703</v>
       </c>
     </row>
     <row r="573">
@@ -8383,7 +8383,7 @@
         <v>6</v>
       </c>
       <c r="D573" t="n">
-        <v>1993040.49620617</v>
+        <v>0.000282160727487203</v>
       </c>
     </row>
     <row r="574">
@@ -8397,7 +8397,7 @@
         <v>6</v>
       </c>
       <c r="D574" t="n">
-        <v>1993057.97309179</v>
+        <v>0.0000294467274171376</v>
       </c>
     </row>
     <row r="575">
@@ -8411,7 +8411,7 @@
         <v>6</v>
       </c>
       <c r="D575" t="n">
-        <v>1993069.40551573</v>
+        <v>0.00000301017786747089</v>
       </c>
     </row>
     <row r="576">
@@ -8425,7 +8425,7 @@
         <v>6</v>
       </c>
       <c r="D576" t="n">
-        <v>1993078.60104351</v>
+        <v>0.000000325092528686402</v>
       </c>
     </row>
     <row r="577">
@@ -8439,7 +8439,7 @@
         <v>6</v>
       </c>
       <c r="D577" t="n">
-        <v>1993086.76236646</v>
+        <v>0.0000000367441619440274</v>
       </c>
     </row>
     <row r="578">
@@ -8453,7 +8453,7 @@
         <v>6</v>
       </c>
       <c r="D578" t="n">
-        <v>1993094.38239071</v>
+        <v>-0.0000000109910627883596</v>
       </c>
     </row>
     <row r="579">
@@ -8467,7 +8467,7 @@
         <v>6</v>
       </c>
       <c r="D579" t="n">
-        <v>1993101.848187</v>
+        <v>-0.0000000107348961772542</v>
       </c>
     </row>
     <row r="580">
@@ -8481,7 +8481,7 @@
         <v>6</v>
       </c>
       <c r="D580" t="n">
-        <v>1993108.88057411</v>
+        <v>-0.00000000424857284772382</v>
       </c>
     </row>
     <row r="581">
@@ -8495,7 +8495,7 @@
         <v>6</v>
       </c>
       <c r="D581" t="n">
-        <v>1993114.98839406</v>
+        <v>-0.000000000832383633530468</v>
       </c>
     </row>
     <row r="582">
@@ -8509,7 +8509,7 @@
         <v>6</v>
       </c>
       <c r="D582" t="n">
-        <v>1993121.21174862</v>
+        <v>0.000000000122215446117326</v>
       </c>
     </row>
     <row r="583">
@@ -8523,7 +8523,7 @@
         <v>6</v>
       </c>
       <c r="D583" t="n">
-        <v>1993127.53287415</v>
+        <v>0.000000000175700858470452</v>
       </c>
     </row>
     <row r="584">
@@ -8537,7 +8537,7 @@
         <v>6</v>
       </c>
       <c r="D584" t="n">
-        <v>1993133.19126576</v>
+        <v>0.0000000000772071110787274</v>
       </c>
     </row>
     <row r="585">
@@ -8551,7 +8551,7 @@
         <v>6</v>
       </c>
       <c r="D585" t="n">
-        <v>1993138.63245444</v>
+        <v>0.0000000000177033669601217</v>
       </c>
     </row>
     <row r="586">
@@ -8565,7 +8565,7 @@
         <v>6</v>
       </c>
       <c r="D586" t="n">
-        <v>1993143.91699733</v>
+        <v>-0.000000000000850246106967825</v>
       </c>
     </row>
     <row r="587">
@@ -8579,7 +8579,7 @@
         <v>6</v>
       </c>
       <c r="D587" t="n">
-        <v>1993148.95381482</v>
+        <v>-0.00000000000280646599757329</v>
       </c>
     </row>
     <row r="588">
@@ -8593,7 +8593,7 @@
         <v>6</v>
       </c>
       <c r="D588" t="n">
-        <v>1993153.78783895</v>
+        <v>-0.00000000000137974957983906</v>
       </c>
     </row>
     <row r="589">
@@ -8607,7 +8607,7 @@
         <v>6</v>
       </c>
       <c r="D589" t="n">
-        <v>1993158.41767625</v>
+        <v>-0.000000000000360711144331213</v>
       </c>
     </row>
     <row r="590">
@@ -8621,7 +8621,7 @@
         <v>6</v>
       </c>
       <c r="D590" t="n">
-        <v>1993162.85236319</v>
+        <v>-0.00000000000000838990585619469</v>
       </c>
     </row>
     <row r="591">
@@ -8635,7 +8635,7 @@
         <v>6</v>
       </c>
       <c r="D591" t="n">
-        <v>1993167.09446118</v>
+        <v>0.0000000000000435045129599696</v>
       </c>
     </row>
     <row r="592">
@@ -8649,7 +8649,7 @@
         <v>6</v>
       </c>
       <c r="D592" t="n">
-        <v>1993171.15935327</v>
+        <v>0.0000000000000242564475219289</v>
       </c>
     </row>
     <row r="593">
@@ -8663,7 +8663,7 @@
         <v>6</v>
       </c>
       <c r="D593" t="n">
-        <v>1993175.06032853</v>
+        <v>-0.000000000000011701505243231</v>
       </c>
     </row>
     <row r="594">
@@ -8691,7 +8691,7 @@
         <v>6</v>
       </c>
       <c r="D595" t="n">
-        <v>32993.2478794827</v>
+        <v>32662.2678821473</v>
       </c>
     </row>
     <row r="596">
@@ -8705,7 +8705,7 @@
         <v>6</v>
       </c>
       <c r="D596" t="n">
-        <v>106009.461954314</v>
+        <v>103977.762362581</v>
       </c>
     </row>
     <row r="597">
@@ -8719,7 +8719,7 @@
         <v>6</v>
       </c>
       <c r="D597" t="n">
-        <v>314646.381119906</v>
+        <v>306553.462073836</v>
       </c>
     </row>
     <row r="598">
@@ -8733,7 +8733,7 @@
         <v>6</v>
       </c>
       <c r="D598" t="n">
-        <v>767119.784852771</v>
+        <v>741043.15095168</v>
       </c>
     </row>
     <row r="599">
@@ -8747,7 +8747,7 @@
         <v>6</v>
       </c>
       <c r="D599" t="n">
-        <v>1348385.04040313</v>
+        <v>862814.270312416</v>
       </c>
     </row>
     <row r="600">
@@ -8761,7 +8761,7 @@
         <v>6</v>
       </c>
       <c r="D600" t="n">
-        <v>1744811.76668554</v>
+        <v>46377.1679494684</v>
       </c>
     </row>
     <row r="601">
@@ -8775,7 +8775,7 @@
         <v>6</v>
       </c>
       <c r="D601" t="n">
-        <v>1913588.26378368</v>
+        <v>2114.96590380854</v>
       </c>
     </row>
     <row r="602">
@@ -8789,7 +8789,7 @@
         <v>6</v>
       </c>
       <c r="D602" t="n">
-        <v>1970857.73101274</v>
+        <v>97.4579437998169</v>
       </c>
     </row>
     <row r="603">
@@ -8803,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="D603" t="n">
-        <v>1988817.66015537</v>
+        <v>4.49302184193077</v>
       </c>
     </row>
     <row r="604">
@@ -8817,7 +8817,7 @@
         <v>6</v>
       </c>
       <c r="D604" t="n">
-        <v>1994377.57063553</v>
+        <v>0.207142807431745</v>
       </c>
     </row>
     <row r="605">
@@ -8831,7 +8831,7 @@
         <v>6</v>
       </c>
       <c r="D605" t="n">
-        <v>1996155.74899903</v>
+        <v>0.00954991462061592</v>
       </c>
     </row>
     <row r="606">
@@ -8845,7 +8845,7 @@
         <v>6</v>
       </c>
       <c r="D606" t="n">
-        <v>1996788.81351787</v>
+        <v>0.000440289919952977</v>
       </c>
     </row>
     <row r="607">
@@ -8859,7 +8859,7 @@
         <v>6</v>
       </c>
       <c r="D607" t="n">
-        <v>1997071.81707483</v>
+        <v>0.0000203174571405008</v>
       </c>
     </row>
     <row r="608">
@@ -8873,7 +8873,7 @@
         <v>6</v>
       </c>
       <c r="D608" t="n">
-        <v>1997244.73130287</v>
+        <v>0.000000904232046991169</v>
       </c>
     </row>
     <row r="609">
@@ -8887,7 +8887,7 @@
         <v>6</v>
       </c>
       <c r="D609" t="n">
-        <v>1997379.55622852</v>
+        <v>0.000000047313366476805</v>
       </c>
     </row>
     <row r="610">
@@ -8901,7 +8901,7 @@
         <v>6</v>
       </c>
       <c r="D610" t="n">
-        <v>1997498.34025848</v>
+        <v>-0.0000000222606030328849</v>
       </c>
     </row>
     <row r="611">
@@ -8915,7 +8915,7 @@
         <v>6</v>
       </c>
       <c r="D611" t="n">
-        <v>1997607.93280666</v>
+        <v>-0.0000000149829626918336</v>
       </c>
     </row>
     <row r="612">
@@ -8929,7 +8929,7 @@
         <v>6</v>
       </c>
       <c r="D612" t="n">
-        <v>1997710.61850222</v>
+        <v>-0.00000000411537496691694</v>
       </c>
     </row>
     <row r="613">
@@ -8943,7 +8943,7 @@
         <v>6</v>
       </c>
       <c r="D613" t="n">
-        <v>1997807.85343513</v>
+        <v>-0.00000000016151545858642</v>
       </c>
     </row>
     <row r="614">
@@ -8957,7 +8957,7 @@
         <v>6</v>
       </c>
       <c r="D614" t="n">
-        <v>1997899.58060398</v>
+        <v>0.000000000379003780322052</v>
       </c>
     </row>
     <row r="615">
@@ -8971,7 +8971,7 @@
         <v>6</v>
       </c>
       <c r="D615" t="n">
-        <v>1997986.44507896</v>
+        <v>0.0000000001832596701528</v>
       </c>
     </row>
     <row r="616">
@@ -8985,7 +8985,7 @@
         <v>6</v>
       </c>
       <c r="D616" t="n">
-        <v>1998069.8477929</v>
+        <v>0.0000000000386756581436772</v>
       </c>
     </row>
     <row r="617">
@@ -8999,7 +8999,7 @@
         <v>6</v>
       </c>
       <c r="D617" t="n">
-        <v>1998148.58574031</v>
+        <v>-0.00000000000311981782274968</v>
       </c>
     </row>
     <row r="618">
@@ -9013,7 +9013,7 @@
         <v>6</v>
       </c>
       <c r="D618" t="n">
-        <v>1998221.51956131</v>
+        <v>-0.00000000000558833934666836</v>
       </c>
     </row>
     <row r="619">
@@ -9027,7 +9027,7 @@
         <v>6</v>
       </c>
       <c r="D619" t="n">
-        <v>1998293.23918909</v>
+        <v>-0.00000000000210111332129855</v>
       </c>
     </row>
     <row r="620">
@@ -9041,7 +9041,7 @@
         <v>6</v>
       </c>
       <c r="D620" t="n">
-        <v>1998361.25935907</v>
+        <v>-0.000000000000307631083278382</v>
       </c>
     </row>
     <row r="621">
@@ -9055,7 +9055,7 @@
         <v>6</v>
       </c>
       <c r="D621" t="n">
-        <v>1998425.67518124</v>
+        <v>0.0000000000000946928381168549</v>
       </c>
     </row>
     <row r="622">
@@ -9069,7 +9069,7 @@
         <v>6</v>
       </c>
       <c r="D622" t="n">
-        <v>1998487.10662435</v>
+        <v>-0.0000000000000497030011008126</v>
       </c>
     </row>
     <row r="623">
@@ -9083,7 +9083,7 @@
         <v>6</v>
       </c>
       <c r="D623" t="n">
-        <v>1998545.58855533</v>
+        <v>-0.000000000000100928443811523</v>
       </c>
     </row>
     <row r="624">
@@ -9097,7 +9097,7 @@
         <v>6</v>
       </c>
       <c r="D624" t="n">
-        <v>1998601.45314067</v>
+        <v>0.0000000000000506768685744418</v>
       </c>
     </row>
     <row r="625">
@@ -9111,7 +9111,7 @@
         <v>6</v>
       </c>
       <c r="D625" t="n">
-        <v>1998654.79953227</v>
+        <v>0.000000000000113886507649857</v>
       </c>
     </row>
     <row r="626">
@@ -9125,7 +9125,7 @@
         <v>6</v>
       </c>
       <c r="D626" t="n">
-        <v>1998705.77495509</v>
+        <v>0.0000000000000556249828989296</v>
       </c>
     </row>
     <row r="627">
@@ -9139,7 +9139,7 @@
         <v>6</v>
       </c>
       <c r="D627" t="n">
-        <v>1998754.47855392</v>
+        <v>0.00000000000000940176610272043</v>
       </c>
     </row>
     <row r="628">
@@ -9153,7 +9153,7 @@
         <v>6</v>
       </c>
       <c r="D628" t="n">
-        <v>1998801.06401151</v>
+        <v>-0.00000000000000196846271823829</v>
       </c>
     </row>
     <row r="629">
@@ -9167,7 +9167,7 @@
         <v>6</v>
       </c>
       <c r="D629" t="n">
-        <v>1998845.69181566</v>
+        <v>-0.00000000000000188719323554578</v>
       </c>
     </row>
     <row r="630">
@@ -9181,7 +9181,7 @@
         <v>6</v>
       </c>
       <c r="D630" t="n">
-        <v>1998888.39762941</v>
+        <v>-0.000000000000000609601959518681</v>
       </c>
     </row>
     <row r="631">
@@ -9209,7 +9209,7 @@
         <v>6</v>
       </c>
       <c r="D632" t="n">
-        <v>36474.6542752313</v>
+        <v>36108.0742347944</v>
       </c>
     </row>
     <row r="633">
@@ -9223,7 +9223,7 @@
         <v>6</v>
       </c>
       <c r="D633" t="n">
-        <v>128487.623685047</v>
+        <v>126030.555162927</v>
       </c>
     </row>
     <row r="634">
@@ -9237,7 +9237,7 @@
         <v>6</v>
       </c>
       <c r="D634" t="n">
-        <v>404656.527085976</v>
+        <v>394573.121316098</v>
       </c>
     </row>
     <row r="635">
@@ -9251,7 +9251,7 @@
         <v>6</v>
       </c>
       <c r="D635" t="n">
-        <v>967139.987755322</v>
+        <v>913909.77808155</v>
       </c>
     </row>
     <row r="636">
@@ -9265,7 +9265,7 @@
         <v>6</v>
       </c>
       <c r="D636" t="n">
-        <v>1550366.7501831</v>
+        <v>374982.692428111</v>
       </c>
     </row>
     <row r="637">
@@ -9279,7 +9279,7 @@
         <v>6</v>
       </c>
       <c r="D637" t="n">
-        <v>1852851.59440794</v>
+        <v>12232.6522057942</v>
       </c>
     </row>
     <row r="638">
@@ -9293,7 +9293,7 @@
         <v>6</v>
       </c>
       <c r="D638" t="n">
-        <v>1956277.08022467</v>
+        <v>432.835271803343</v>
       </c>
     </row>
     <row r="639">
@@ -9307,7 +9307,7 @@
         <v>6</v>
       </c>
       <c r="D639" t="n">
-        <v>1986424.35432226</v>
+        <v>15.3577314533652</v>
       </c>
     </row>
     <row r="640">
@@ -9321,7 +9321,7 @@
         <v>6</v>
       </c>
       <c r="D640" t="n">
-        <v>1994878.41712724</v>
+        <v>0.544972443859832</v>
       </c>
     </row>
     <row r="641">
@@ -9335,7 +9335,7 @@
         <v>6</v>
       </c>
       <c r="D641" t="n">
-        <v>1997302.77853116</v>
+        <v>0.0193384700696328</v>
       </c>
     </row>
     <row r="642">
@@ -9349,7 +9349,7 @@
         <v>6</v>
       </c>
       <c r="D642" t="n">
-        <v>1998073.09005872</v>
+        <v>0.000686248081682114</v>
       </c>
     </row>
     <row r="643">
@@ -9363,7 +9363,7 @@
         <v>6</v>
       </c>
       <c r="D643" t="n">
-        <v>1998384.72212089</v>
+        <v>0.0000243687808752006</v>
       </c>
     </row>
     <row r="644">
@@ -9377,7 +9377,7 @@
         <v>6</v>
       </c>
       <c r="D644" t="n">
-        <v>1998562.65244722</v>
+        <v>0.000000835438597497777</v>
       </c>
     </row>
     <row r="645">
@@ -9391,7 +9391,7 @@
         <v>6</v>
       </c>
       <c r="D645" t="n">
-        <v>1998696.12068098</v>
+        <v>0.0000000340983762768298</v>
       </c>
     </row>
     <row r="646">
@@ -9405,7 +9405,7 @@
         <v>6</v>
       </c>
       <c r="D646" t="n">
-        <v>1998809.88293838</v>
+        <v>-0.0000000226082717554058</v>
       </c>
     </row>
     <row r="647">
@@ -9419,7 +9419,7 @@
         <v>6</v>
       </c>
       <c r="D647" t="n">
-        <v>1998911.10870505</v>
+        <v>-0.000000012912061647166</v>
       </c>
     </row>
     <row r="648">
@@ -9433,7 +9433,7 @@
         <v>6</v>
       </c>
       <c r="D648" t="n">
-        <v>1999003.17654755</v>
+        <v>-0.0000000030008227572382</v>
       </c>
     </row>
     <row r="649">
@@ -9447,7 +9447,7 @@
         <v>6</v>
       </c>
       <c r="D649" t="n">
-        <v>1999086.72309891</v>
+        <v>0.0000000000939133235198214</v>
       </c>
     </row>
     <row r="650">
@@ -9461,7 +9461,7 @@
         <v>6</v>
       </c>
       <c r="D650" t="n">
-        <v>1999162.22761142</v>
+        <v>0.000000000348905812793873</v>
       </c>
     </row>
     <row r="651">
@@ -9475,7 +9475,7 @@
         <v>6</v>
       </c>
       <c r="D651" t="n">
-        <v>1999232.94688645</v>
+        <v>0.000000000134510006881059</v>
       </c>
     </row>
     <row r="652">
@@ -9489,7 +9489,7 @@
         <v>6</v>
       </c>
       <c r="D652" t="n">
-        <v>1999298.52518711</v>
+        <v>0.0000000000195434830532529</v>
       </c>
     </row>
     <row r="653">
@@ -9503,7 +9503,7 @@
         <v>6</v>
       </c>
       <c r="D653" t="n">
-        <v>1999354.80270957</v>
+        <v>-0.00000000000582150034569106</v>
       </c>
     </row>
     <row r="654">
@@ -9517,7 +9517,7 @@
         <v>6</v>
       </c>
       <c r="D654" t="n">
-        <v>1999408.53506095</v>
+        <v>-0.00000000000442569206713746</v>
       </c>
     </row>
     <row r="655">
@@ -9531,7 +9531,7 @@
         <v>6</v>
       </c>
       <c r="D655" t="n">
-        <v>1999457.23244688</v>
+        <v>-0.00000000000122770614168365</v>
       </c>
     </row>
     <row r="656">
@@ -9545,7 +9545,7 @@
         <v>6</v>
       </c>
       <c r="D656" t="n">
-        <v>1999501.66480953</v>
+        <v>-0.0000000000000501227757794386</v>
       </c>
     </row>
     <row r="657">
@@ -9559,7 +9559,7 @@
         <v>6</v>
       </c>
       <c r="D657" t="n">
-        <v>1999542.56770532</v>
+        <v>0.000000000000106060638290904</v>
       </c>
     </row>
     <row r="658">
@@ -9573,7 +9573,7 @@
         <v>6</v>
       </c>
       <c r="D658" t="n">
-        <v>1999580.05060847</v>
+        <v>-0.0000000000000857318424894916</v>
       </c>
     </row>
     <row r="659">
@@ -9587,7 +9587,7 @@
         <v>6</v>
       </c>
       <c r="D659" t="n">
-        <v>1999614.38613731</v>
+        <v>-0.0000000000000450464150253815</v>
       </c>
     </row>
     <row r="660">
@@ -9601,7 +9601,7 @@
         <v>6</v>
       </c>
       <c r="D660" t="n">
-        <v>1999645.85558055</v>
+        <v>0.000000000000132073198422996</v>
       </c>
     </row>
     <row r="661">
@@ -9615,7 +9615,7 @@
         <v>6</v>
       </c>
       <c r="D661" t="n">
-        <v>1999674.71714697</v>
+        <v>0.000000000000117419475691088</v>
       </c>
     </row>
     <row r="662">
@@ -9629,7 +9629,7 @@
         <v>6</v>
       </c>
       <c r="D662" t="n">
-        <v>1999701.19037971</v>
+        <v>0.000000000000039183880981872</v>
       </c>
     </row>
     <row r="663">
@@ -9643,7 +9643,7 @@
         <v>6</v>
       </c>
       <c r="D663" t="n">
-        <v>1999725.45604658</v>
+        <v>0.000000000000003358421884108</v>
       </c>
     </row>
     <row r="664">
@@ -9657,7 +9657,7 @@
         <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>1999747.71751882</v>
+        <v>-0.00000000000000266086126703579</v>
       </c>
     </row>
     <row r="665">
@@ -9671,7 +9671,7 @@
         <v>6</v>
       </c>
       <c r="D665" t="n">
-        <v>1999768.18120149</v>
+        <v>-0.00000000000000144679794682865</v>
       </c>
     </row>
     <row r="666">
@@ -9685,7 +9685,7 @@
         <v>6</v>
       </c>
       <c r="D666" t="n">
-        <v>1999786.96367244</v>
+        <v>-0.00000000000000032305122519684</v>
       </c>
     </row>
     <row r="667">
@@ -9699,7 +9699,7 @@
         <v>6</v>
       </c>
       <c r="D667" t="n">
-        <v>1999804.13797345</v>
+        <v>0.0000000000000000160263016631667</v>
       </c>
     </row>
   </sheetData>
